--- a/emdb/data/outputs/test_nigeria18_pivot.xlsx
+++ b/emdb/data/outputs/test_nigeria18_pivot.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t xml:space="preserve">Area</t>
   </si>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">NGA</t>
   </si>
   <si>
-    <t xml:space="preserve">1.A</t>
+    <t xml:space="preserve">1.A.</t>
   </si>
   <si>
     <t xml:space="preserve">Fuel Combustion Activities</t>
@@ -248,12 +248,15 @@
     <t xml:space="preserve">Bagasse</t>
   </si>
   <si>
+    <t xml:space="preserve">Emissions (CO2bio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emissions (CO2eq) from CH4 (AR5)</t>
   </si>
   <si>
-    <t xml:space="preserve">kt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emissions (CO2eq) from N2O (AR5)</t>
   </si>
   <si>
@@ -314,6 +317,9 @@
     <t xml:space="preserve">Refinery gas</t>
   </si>
   <si>
+    <t xml:space="preserve">Vegetal waste</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.B.1</t>
   </si>
   <si>
@@ -324,9 +330,6 @@
   </si>
   <si>
     <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Emissions (CO2bio)</t>
   </si>
   <si>
     <t xml:space="preserve">1.B.2</t>
@@ -1176,10 +1179,10 @@
       <c r="BQ2"/>
       <c r="BR2"/>
       <c r="BS2" t="n">
-        <v>1.037232</v>
+        <v>123.48</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.037232</v>
+        <v>123.48</v>
       </c>
     </row>
     <row r="3">
@@ -1272,10 +1275,10 @@
       <c r="BQ3"/>
       <c r="BR3"/>
       <c r="BS3" t="n">
-        <v>1.308888</v>
+        <v>1.037232</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.308888</v>
+        <v>1.037232</v>
       </c>
     </row>
     <row r="4">
@@ -1298,10 +1301,10 @@
         <v>76</v>
       </c>
       <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
         <v>81</v>
-      </c>
-      <c r="H4" t="s">
-        <v>78</v>
       </c>
       <c r="I4" t="s">
         <v>79</v>
@@ -1368,10 +1371,10 @@
       <c r="BQ4"/>
       <c r="BR4"/>
       <c r="BS4" t="n">
-        <v>216.186620328</v>
+        <v>1.308888</v>
       </c>
       <c r="BT4" t="n">
-        <v>216.186620328</v>
+        <v>1.308888</v>
       </c>
     </row>
     <row r="5">
@@ -1394,10 +1397,10 @@
         <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
         <v>79</v>
@@ -1464,10 +1467,10 @@
       <c r="BQ5"/>
       <c r="BR5"/>
       <c r="BS5" t="n">
-        <v>40.9210388478</v>
+        <v>4323.73240656</v>
       </c>
       <c r="BT5" t="n">
-        <v>40.9210388478</v>
+        <v>4323.73240656</v>
       </c>
     </row>
     <row r="6">
@@ -1493,7 +1496,7 @@
         <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
         <v>79</v>
@@ -1560,10 +1563,10 @@
       <c r="BQ6"/>
       <c r="BR6"/>
       <c r="BS6" t="n">
-        <v>1465.66492569</v>
+        <v>216.186620328</v>
       </c>
       <c r="BT6" t="n">
-        <v>1465.66492569</v>
+        <v>216.186620328</v>
       </c>
     </row>
     <row r="7">
@@ -1589,7 +1592,7 @@
         <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -1656,10 +1659,10 @@
       <c r="BQ7"/>
       <c r="BR7"/>
       <c r="BS7" t="n">
-        <v>1.5906441054</v>
+        <v>40.9210388478</v>
       </c>
       <c r="BT7" t="n">
-        <v>1.5906441054</v>
+        <v>40.9210388478</v>
       </c>
     </row>
     <row r="8">
@@ -1682,10 +1685,10 @@
         <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
         <v>79</v>
@@ -1752,10 +1755,10 @@
       <c r="BQ8"/>
       <c r="BR8"/>
       <c r="BS8" t="n">
-        <v>3.01086205665</v>
+        <v>1465.66492569</v>
       </c>
       <c r="BT8" t="n">
-        <v>3.01086205665</v>
+        <v>1465.66492569</v>
       </c>
     </row>
     <row r="9">
@@ -1775,13 +1778,13 @@
         <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
@@ -1820,9 +1823,7 @@
       <c r="AO9"/>
       <c r="AP9"/>
       <c r="AQ9"/>
-      <c r="AR9" t="n">
-        <v>543.306632022</v>
-      </c>
+      <c r="AR9"/>
       <c r="AS9"/>
       <c r="AT9"/>
       <c r="AU9"/>
@@ -1849,9 +1850,11 @@
       <c r="BP9"/>
       <c r="BQ9"/>
       <c r="BR9"/>
-      <c r="BS9"/>
+      <c r="BS9" t="n">
+        <v>1.5906441054</v>
+      </c>
       <c r="BT9" t="n">
-        <v>543.306632022</v>
+        <v>1.5906441054</v>
       </c>
     </row>
     <row r="10">
@@ -1871,13 +1874,13 @@
         <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
         <v>79</v>
@@ -1916,9 +1919,7 @@
       <c r="AO10"/>
       <c r="AP10"/>
       <c r="AQ10"/>
-      <c r="AR10" t="n">
-        <v>0.58963510452</v>
-      </c>
+      <c r="AR10"/>
       <c r="AS10"/>
       <c r="AT10"/>
       <c r="AU10"/>
@@ -1945,9 +1946,11 @@
       <c r="BP10"/>
       <c r="BQ10"/>
       <c r="BR10"/>
-      <c r="BS10"/>
+      <c r="BS10" t="n">
+        <v>3.01086205665</v>
+      </c>
       <c r="BT10" t="n">
-        <v>0.58963510452</v>
+        <v>3.01086205665</v>
       </c>
     </row>
     <row r="11">
@@ -1967,13 +1970,13 @@
         <v>75</v>
       </c>
       <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
         <v>84</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>80</v>
       </c>
       <c r="I11" t="s">
         <v>79</v>
@@ -2013,7 +2016,7 @@
       <c r="AP11"/>
       <c r="AQ11"/>
       <c r="AR11" t="n">
-        <v>1.11609501927</v>
+        <v>543.306632022</v>
       </c>
       <c r="AS11"/>
       <c r="AT11"/>
@@ -2043,7 +2046,7 @@
       <c r="BR11"/>
       <c r="BS11"/>
       <c r="BT11" t="n">
-        <v>1.11609501927</v>
+        <v>543.306632022</v>
       </c>
     </row>
     <row r="12">
@@ -2063,13 +2066,13 @@
         <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
         <v>79</v>
@@ -2108,7 +2111,9 @@
       <c r="AO12"/>
       <c r="AP12"/>
       <c r="AQ12"/>
-      <c r="AR12"/>
+      <c r="AR12" t="n">
+        <v>0.58963510452</v>
+      </c>
       <c r="AS12"/>
       <c r="AT12"/>
       <c r="AU12"/>
@@ -2135,11 +2140,9 @@
       <c r="BP12"/>
       <c r="BQ12"/>
       <c r="BR12"/>
-      <c r="BS12" t="n">
-        <v>651.939687725227</v>
-      </c>
+      <c r="BS12"/>
       <c r="BT12" t="n">
-        <v>651.939687725227</v>
+        <v>0.58963510452</v>
       </c>
     </row>
     <row r="13">
@@ -2159,13 +2162,13 @@
         <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
         <v>79</v>
@@ -2204,7 +2207,9 @@
       <c r="AO13"/>
       <c r="AP13"/>
       <c r="AQ13"/>
-      <c r="AR13"/>
+      <c r="AR13" t="n">
+        <v>1.11609501927</v>
+      </c>
       <c r="AS13"/>
       <c r="AT13"/>
       <c r="AU13"/>
@@ -2231,11 +2236,9 @@
       <c r="BP13"/>
       <c r="BQ13"/>
       <c r="BR13"/>
-      <c r="BS13" t="n">
-        <v>822.685796415167</v>
-      </c>
+      <c r="BS13"/>
       <c r="BT13" t="n">
-        <v>822.685796415167</v>
+        <v>1.11609501927</v>
       </c>
     </row>
     <row r="14">
@@ -2255,10 +2258,10 @@
         <v>75</v>
       </c>
       <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
       </c>
       <c r="H14" t="s">
         <v>78</v>
@@ -2294,9 +2297,7 @@
       <c r="AI14"/>
       <c r="AJ14"/>
       <c r="AK14"/>
-      <c r="AL14" t="n">
-        <v>190.741515807528</v>
-      </c>
+      <c r="AL14"/>
       <c r="AM14"/>
       <c r="AN14"/>
       <c r="AO14"/>
@@ -2329,9 +2330,11 @@
       <c r="BP14"/>
       <c r="BQ14"/>
       <c r="BR14"/>
-      <c r="BS14"/>
+      <c r="BS14" t="n">
+        <v>86925.2916966969</v>
+      </c>
       <c r="BT14" t="n">
-        <v>190.741515807528</v>
+        <v>86925.2916966969</v>
       </c>
     </row>
     <row r="15">
@@ -2351,10 +2354,10 @@
         <v>75</v>
       </c>
       <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
         <v>86</v>
-      </c>
-      <c r="G15" t="s">
-        <v>85</v>
       </c>
       <c r="H15" t="s">
         <v>80</v>
@@ -2390,9 +2393,7 @@
       <c r="AI15"/>
       <c r="AJ15"/>
       <c r="AK15"/>
-      <c r="AL15" t="n">
-        <v>240.697627090452</v>
-      </c>
+      <c r="AL15"/>
       <c r="AM15"/>
       <c r="AN15"/>
       <c r="AO15"/>
@@ -2425,9 +2426,11 @@
       <c r="BP15"/>
       <c r="BQ15"/>
       <c r="BR15"/>
-      <c r="BS15"/>
+      <c r="BS15" t="n">
+        <v>651.939687725227</v>
+      </c>
       <c r="BT15" t="n">
-        <v>240.697627090452</v>
+        <v>651.939687725227</v>
       </c>
     </row>
     <row r="16">
@@ -2450,10 +2453,10 @@
         <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
         <v>79</v>
@@ -2520,10 +2523,10 @@
       <c r="BQ16"/>
       <c r="BR16"/>
       <c r="BS16" t="n">
-        <v>12249.52120275</v>
+        <v>822.685796415167</v>
       </c>
       <c r="BT16" t="n">
-        <v>12249.52120275</v>
+        <v>822.685796415167</v>
       </c>
     </row>
     <row r="17">
@@ -2543,10 +2546,10 @@
         <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
         <v>78</v>
@@ -2582,7 +2585,9 @@
       <c r="AI17"/>
       <c r="AJ17"/>
       <c r="AK17"/>
-      <c r="AL17"/>
+      <c r="AL17" t="n">
+        <v>25432.2021076704</v>
+      </c>
       <c r="AM17"/>
       <c r="AN17"/>
       <c r="AO17"/>
@@ -2615,11 +2620,9 @@
       <c r="BP17"/>
       <c r="BQ17"/>
       <c r="BR17"/>
-      <c r="BS17" t="n">
-        <v>13.88609691</v>
-      </c>
+      <c r="BS17"/>
       <c r="BT17" t="n">
-        <v>13.88609691</v>
+        <v>25432.2021076704</v>
       </c>
     </row>
     <row r="18">
@@ -2639,10 +2642,10 @@
         <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
@@ -2678,7 +2681,9 @@
       <c r="AI18"/>
       <c r="AJ18"/>
       <c r="AK18"/>
-      <c r="AL18"/>
+      <c r="AL18" t="n">
+        <v>190.741515807528</v>
+      </c>
       <c r="AM18"/>
       <c r="AN18"/>
       <c r="AO18"/>
@@ -2711,11 +2716,9 @@
       <c r="BP18"/>
       <c r="BQ18"/>
       <c r="BR18"/>
-      <c r="BS18" t="n">
-        <v>26.2843977225</v>
-      </c>
+      <c r="BS18"/>
       <c r="BT18" t="n">
-        <v>26.2843977225</v>
+        <v>190.741515807528</v>
       </c>
     </row>
     <row r="19">
@@ -2735,13 +2738,13 @@
         <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
         <v>79</v>
@@ -2774,15 +2777,15 @@
       <c r="AI19"/>
       <c r="AJ19"/>
       <c r="AK19"/>
-      <c r="AL19"/>
+      <c r="AL19" t="n">
+        <v>240.697627090452</v>
+      </c>
       <c r="AM19"/>
       <c r="AN19"/>
       <c r="AO19"/>
       <c r="AP19"/>
       <c r="AQ19"/>
-      <c r="AR19" t="n">
-        <v>62.5378065</v>
-      </c>
+      <c r="AR19"/>
       <c r="AS19"/>
       <c r="AT19"/>
       <c r="AU19"/>
@@ -2811,7 +2814,7 @@
       <c r="BR19"/>
       <c r="BS19"/>
       <c r="BT19" t="n">
-        <v>62.5378065</v>
+        <v>240.697627090452</v>
       </c>
     </row>
     <row r="20">
@@ -2831,13 +2834,13 @@
         <v>75</v>
       </c>
       <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
         <v>84</v>
-      </c>
-      <c r="G20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" t="s">
-        <v>78</v>
       </c>
       <c r="I20" t="s">
         <v>79</v>
@@ -2876,9 +2879,7 @@
       <c r="AO20"/>
       <c r="AP20"/>
       <c r="AQ20"/>
-      <c r="AR20" t="n">
-        <v>0.07089306</v>
-      </c>
+      <c r="AR20"/>
       <c r="AS20"/>
       <c r="AT20"/>
       <c r="AU20"/>
@@ -2905,9 +2906,11 @@
       <c r="BP20"/>
       <c r="BQ20"/>
       <c r="BR20"/>
-      <c r="BS20"/>
+      <c r="BS20" t="n">
+        <v>12249.52120275</v>
+      </c>
       <c r="BT20" t="n">
-        <v>0.07089306</v>
+        <v>12249.52120275</v>
       </c>
     </row>
     <row r="21">
@@ -2927,10 +2930,10 @@
         <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
         <v>80</v>
@@ -2972,9 +2975,7 @@
       <c r="AO21"/>
       <c r="AP21"/>
       <c r="AQ21"/>
-      <c r="AR21" t="n">
-        <v>0.134190435</v>
-      </c>
+      <c r="AR21"/>
       <c r="AS21"/>
       <c r="AT21"/>
       <c r="AU21"/>
@@ -3001,9 +3002,11 @@
       <c r="BP21"/>
       <c r="BQ21"/>
       <c r="BR21"/>
-      <c r="BS21"/>
+      <c r="BS21" t="n">
+        <v>13.88609691</v>
+      </c>
       <c r="BT21" t="n">
-        <v>0.134190435</v>
+        <v>13.88609691</v>
       </c>
     </row>
     <row r="22">
@@ -3029,7 +3032,7 @@
         <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
         <v>79</v>
@@ -3096,10 +3099,10 @@
       <c r="BQ22"/>
       <c r="BR22"/>
       <c r="BS22" t="n">
-        <v>1513.247522913</v>
+        <v>26.2843977225</v>
       </c>
       <c r="BT22" t="n">
-        <v>1513.247522913</v>
+        <v>26.2843977225</v>
       </c>
     </row>
     <row r="23">
@@ -3119,13 +3122,13 @@
         <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
         <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
         <v>79</v>
@@ -3164,7 +3167,9 @@
       <c r="AO23"/>
       <c r="AP23"/>
       <c r="AQ23"/>
-      <c r="AR23"/>
+      <c r="AR23" t="n">
+        <v>62.5378065</v>
+      </c>
       <c r="AS23"/>
       <c r="AT23"/>
       <c r="AU23"/>
@@ -3191,11 +3196,9 @@
       <c r="BP23"/>
       <c r="BQ23"/>
       <c r="BR23"/>
-      <c r="BS23" t="n">
-        <v>0.44090458524</v>
-      </c>
+      <c r="BS23"/>
       <c r="BT23" t="n">
-        <v>0.44090458524</v>
+        <v>62.5378065</v>
       </c>
     </row>
     <row r="24">
@@ -3215,7 +3218,7 @@
         <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
         <v>88</v>
@@ -3260,7 +3263,9 @@
       <c r="AO24"/>
       <c r="AP24"/>
       <c r="AQ24"/>
-      <c r="AR24"/>
+      <c r="AR24" t="n">
+        <v>0.07089306</v>
+      </c>
       <c r="AS24"/>
       <c r="AT24"/>
       <c r="AU24"/>
@@ -3287,11 +3292,9 @@
       <c r="BP24"/>
       <c r="BQ24"/>
       <c r="BR24"/>
-      <c r="BS24" t="n">
-        <v>6.259270451175</v>
-      </c>
+      <c r="BS24"/>
       <c r="BT24" t="n">
-        <v>6.259270451175</v>
+        <v>0.07089306</v>
       </c>
     </row>
     <row r="25">
@@ -3311,13 +3314,13 @@
         <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
         <v>79</v>
@@ -3356,7 +3359,9 @@
       <c r="AO25"/>
       <c r="AP25"/>
       <c r="AQ25"/>
-      <c r="AR25"/>
+      <c r="AR25" t="n">
+        <v>0.134190435</v>
+      </c>
       <c r="AS25"/>
       <c r="AT25"/>
       <c r="AU25"/>
@@ -3374,9 +3379,7 @@
       <c r="BG25"/>
       <c r="BH25"/>
       <c r="BI25"/>
-      <c r="BJ25" t="n">
-        <v>607.908418975</v>
-      </c>
+      <c r="BJ25"/>
       <c r="BK25"/>
       <c r="BL25"/>
       <c r="BM25"/>
@@ -3387,7 +3390,7 @@
       <c r="BR25"/>
       <c r="BS25"/>
       <c r="BT25" t="n">
-        <v>607.908418975</v>
+        <v>0.134190435</v>
       </c>
     </row>
     <row r="26">
@@ -3413,7 +3416,7 @@
         <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
         <v>79</v>
@@ -3470,9 +3473,7 @@
       <c r="BG26"/>
       <c r="BH26"/>
       <c r="BI26"/>
-      <c r="BJ26" t="n">
-        <v>0.7141861146</v>
-      </c>
+      <c r="BJ26"/>
       <c r="BK26"/>
       <c r="BL26"/>
       <c r="BM26"/>
@@ -3481,9 +3482,11 @@
       <c r="BP26"/>
       <c r="BQ26"/>
       <c r="BR26"/>
-      <c r="BS26"/>
+      <c r="BS26" t="n">
+        <v>1513.247522913</v>
+      </c>
       <c r="BT26" t="n">
-        <v>0.7141861146</v>
+        <v>1513.247522913</v>
       </c>
     </row>
     <row r="27">
@@ -3566,9 +3569,7 @@
       <c r="BG27"/>
       <c r="BH27"/>
       <c r="BI27"/>
-      <c r="BJ27" t="n">
-        <v>1.35185228835</v>
-      </c>
+      <c r="BJ27"/>
       <c r="BK27"/>
       <c r="BL27"/>
       <c r="BM27"/>
@@ -3577,9 +3578,11 @@
       <c r="BP27"/>
       <c r="BQ27"/>
       <c r="BR27"/>
-      <c r="BS27"/>
+      <c r="BS27" t="n">
+        <v>0.44090458524</v>
+      </c>
       <c r="BT27" t="n">
-        <v>1.35185228835</v>
+        <v>0.44090458524</v>
       </c>
     </row>
     <row r="28">
@@ -3602,10 +3605,10 @@
         <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s">
         <v>79</v>
@@ -3672,10 +3675,10 @@
       <c r="BQ28"/>
       <c r="BR28"/>
       <c r="BS28" t="n">
-        <v>475.402129615</v>
+        <v>6.259270451175</v>
       </c>
       <c r="BT28" t="n">
-        <v>475.402129615</v>
+        <v>6.259270451175</v>
       </c>
     </row>
     <row r="29">
@@ -3701,7 +3704,7 @@
         <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
         <v>79</v>
@@ -3758,7 +3761,9 @@
       <c r="BG29"/>
       <c r="BH29"/>
       <c r="BI29"/>
-      <c r="BJ29"/>
+      <c r="BJ29" t="n">
+        <v>607.908418975</v>
+      </c>
       <c r="BK29"/>
       <c r="BL29"/>
       <c r="BM29"/>
@@ -3767,11 +3772,9 @@
       <c r="BP29"/>
       <c r="BQ29"/>
       <c r="BR29"/>
-      <c r="BS29" t="n">
-        <v>0.2109549862</v>
-      </c>
+      <c r="BS29"/>
       <c r="BT29" t="n">
-        <v>0.2109549862</v>
+        <v>607.908418975</v>
       </c>
     </row>
     <row r="30">
@@ -3854,7 +3857,9 @@
       <c r="BG30"/>
       <c r="BH30"/>
       <c r="BI30"/>
-      <c r="BJ30"/>
+      <c r="BJ30" t="n">
+        <v>0.7141861146</v>
+      </c>
       <c r="BK30"/>
       <c r="BL30"/>
       <c r="BM30"/>
@@ -3863,11 +3868,9 @@
       <c r="BP30"/>
       <c r="BQ30"/>
       <c r="BR30"/>
-      <c r="BS30" t="n">
-        <v>0.199653826225</v>
-      </c>
+      <c r="BS30"/>
       <c r="BT30" t="n">
-        <v>0.199653826225</v>
+        <v>0.7141861146</v>
       </c>
     </row>
     <row r="31">
@@ -3887,13 +3890,13 @@
         <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
         <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s">
         <v>79</v>
@@ -3932,9 +3935,7 @@
       <c r="AO31"/>
       <c r="AP31"/>
       <c r="AQ31"/>
-      <c r="AR31" t="n">
-        <v>42.69918948</v>
-      </c>
+      <c r="AR31"/>
       <c r="AS31"/>
       <c r="AT31"/>
       <c r="AU31"/>
@@ -3952,7 +3953,9 @@
       <c r="BG31"/>
       <c r="BH31"/>
       <c r="BI31"/>
-      <c r="BJ31"/>
+      <c r="BJ31" t="n">
+        <v>1.35185228835</v>
+      </c>
       <c r="BK31"/>
       <c r="BL31"/>
       <c r="BM31"/>
@@ -3963,7 +3966,7 @@
       <c r="BR31"/>
       <c r="BS31"/>
       <c r="BT31" t="n">
-        <v>42.69918948</v>
+        <v>1.35185228835</v>
       </c>
     </row>
     <row r="32">
@@ -3983,13 +3986,13 @@
         <v>75</v>
       </c>
       <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" t="s">
         <v>84</v>
-      </c>
-      <c r="G32" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" t="s">
-        <v>78</v>
       </c>
       <c r="I32" t="s">
         <v>79</v>
@@ -4028,9 +4031,7 @@
       <c r="AO32"/>
       <c r="AP32"/>
       <c r="AQ32"/>
-      <c r="AR32" t="n">
-        <v>0.0189473424</v>
-      </c>
+      <c r="AR32"/>
       <c r="AS32"/>
       <c r="AT32"/>
       <c r="AU32"/>
@@ -4057,9 +4058,11 @@
       <c r="BP32"/>
       <c r="BQ32"/>
       <c r="BR32"/>
-      <c r="BS32"/>
+      <c r="BS32" t="n">
+        <v>475.402129615</v>
+      </c>
       <c r="BT32" t="n">
-        <v>0.0189473424</v>
+        <v>475.402129615</v>
       </c>
     </row>
     <row r="33">
@@ -4079,10 +4082,10 @@
         <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s">
         <v>80</v>
@@ -4124,9 +4127,7 @@
       <c r="AO33"/>
       <c r="AP33"/>
       <c r="AQ33"/>
-      <c r="AR33" t="n">
-        <v>0.0179323062</v>
-      </c>
+      <c r="AR33"/>
       <c r="AS33"/>
       <c r="AT33"/>
       <c r="AU33"/>
@@ -4153,9 +4154,11 @@
       <c r="BP33"/>
       <c r="BQ33"/>
       <c r="BR33"/>
-      <c r="BS33"/>
+      <c r="BS33" t="n">
+        <v>0.2109549862</v>
+      </c>
       <c r="BT33" t="n">
-        <v>0.0179323062</v>
+        <v>0.2109549862</v>
       </c>
     </row>
     <row r="34">
@@ -4181,7 +4184,7 @@
         <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s">
         <v>79</v>
@@ -4248,10 +4251,10 @@
       <c r="BQ34"/>
       <c r="BR34"/>
       <c r="BS34" t="n">
-        <v>41136.624086481</v>
+        <v>0.199653826225</v>
       </c>
       <c r="BT34" t="n">
-        <v>41136.624086481</v>
+        <v>0.199653826225</v>
       </c>
     </row>
     <row r="35">
@@ -4271,13 +4274,13 @@
         <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s">
         <v>91</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s">
         <v>79</v>
@@ -4316,7 +4319,9 @@
       <c r="AO35"/>
       <c r="AP35"/>
       <c r="AQ35"/>
-      <c r="AR35"/>
+      <c r="AR35" t="n">
+        <v>42.69918948</v>
+      </c>
       <c r="AS35"/>
       <c r="AT35"/>
       <c r="AU35"/>
@@ -4343,11 +4348,9 @@
       <c r="BP35"/>
       <c r="BQ35"/>
       <c r="BR35"/>
-      <c r="BS35" t="n">
-        <v>49.86257465028</v>
-      </c>
+      <c r="BS35"/>
       <c r="BT35" t="n">
-        <v>49.86257465028</v>
+        <v>42.69918948</v>
       </c>
     </row>
     <row r="36">
@@ -4367,7 +4370,7 @@
         <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s">
         <v>91</v>
@@ -4412,7 +4415,9 @@
       <c r="AO36"/>
       <c r="AP36"/>
       <c r="AQ36"/>
-      <c r="AR36"/>
+      <c r="AR36" t="n">
+        <v>0.0189473424</v>
+      </c>
       <c r="AS36"/>
       <c r="AT36"/>
       <c r="AU36"/>
@@ -4439,11 +4444,9 @@
       <c r="BP36"/>
       <c r="BQ36"/>
       <c r="BR36"/>
-      <c r="BS36" t="n">
-        <v>94.38273058803</v>
-      </c>
+      <c r="BS36"/>
       <c r="BT36" t="n">
-        <v>94.38273058803</v>
+        <v>0.0189473424</v>
       </c>
     </row>
     <row r="37">
@@ -4463,13 +4466,13 @@
         <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s">
         <v>79</v>
@@ -4508,7 +4511,9 @@
       <c r="AO37"/>
       <c r="AP37"/>
       <c r="AQ37"/>
-      <c r="AR37"/>
+      <c r="AR37" t="n">
+        <v>0.0179323062</v>
+      </c>
       <c r="AS37"/>
       <c r="AT37"/>
       <c r="AU37"/>
@@ -4535,11 +4540,9 @@
       <c r="BP37"/>
       <c r="BQ37"/>
       <c r="BR37"/>
-      <c r="BS37" t="n">
-        <v>6224.3516049</v>
-      </c>
+      <c r="BS37"/>
       <c r="BT37" t="n">
-        <v>6224.3516049</v>
+        <v>0.0179323062</v>
       </c>
     </row>
     <row r="38">
@@ -4565,7 +4568,7 @@
         <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I38" t="s">
         <v>79</v>
@@ -4632,10 +4635,10 @@
       <c r="BQ38"/>
       <c r="BR38"/>
       <c r="BS38" t="n">
-        <v>3.106628252</v>
+        <v>41136.624086481</v>
       </c>
       <c r="BT38" t="n">
-        <v>3.106628252</v>
+        <v>41136.624086481</v>
       </c>
     </row>
     <row r="39">
@@ -4728,10 +4731,10 @@
       <c r="BQ39"/>
       <c r="BR39"/>
       <c r="BS39" t="n">
-        <v>2.9402017385</v>
+        <v>49.86257465028</v>
       </c>
       <c r="BT39" t="n">
-        <v>2.9402017385</v>
+        <v>49.86257465028</v>
       </c>
     </row>
     <row r="40">
@@ -4751,13 +4754,13 @@
         <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s">
         <v>92</v>
       </c>
       <c r="H40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s">
         <v>79</v>
@@ -4794,9 +4797,7 @@
       <c r="AM40"/>
       <c r="AN40"/>
       <c r="AO40"/>
-      <c r="AP40" t="n">
-        <v>4609.6202559</v>
-      </c>
+      <c r="AP40"/>
       <c r="AQ40"/>
       <c r="AR40"/>
       <c r="AS40"/>
@@ -4825,9 +4826,11 @@
       <c r="BP40"/>
       <c r="BQ40"/>
       <c r="BR40"/>
-      <c r="BS40"/>
+      <c r="BS40" t="n">
+        <v>94.38273058803</v>
+      </c>
       <c r="BT40" t="n">
-        <v>4609.6202559</v>
+        <v>94.38273058803</v>
       </c>
     </row>
     <row r="41">
@@ -4847,13 +4850,13 @@
         <v>75</v>
       </c>
       <c r="F41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s">
         <v>93</v>
       </c>
-      <c r="G41" t="s">
-        <v>92</v>
-      </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s">
         <v>79</v>
@@ -4890,9 +4893,7 @@
       <c r="AM41"/>
       <c r="AN41"/>
       <c r="AO41"/>
-      <c r="AP41" t="n">
-        <v>2.300701732</v>
-      </c>
+      <c r="AP41"/>
       <c r="AQ41"/>
       <c r="AR41"/>
       <c r="AS41"/>
@@ -4921,9 +4922,11 @@
       <c r="BP41"/>
       <c r="BQ41"/>
       <c r="BR41"/>
-      <c r="BS41"/>
+      <c r="BS41" t="n">
+        <v>6224.3516049</v>
+      </c>
       <c r="BT41" t="n">
-        <v>2.300701732</v>
+        <v>6224.3516049</v>
       </c>
     </row>
     <row r="42">
@@ -4943,10 +4946,10 @@
         <v>75</v>
       </c>
       <c r="F42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s">
         <v>93</v>
-      </c>
-      <c r="G42" t="s">
-        <v>92</v>
       </c>
       <c r="H42" t="s">
         <v>80</v>
@@ -4986,9 +4989,7 @@
       <c r="AM42"/>
       <c r="AN42"/>
       <c r="AO42"/>
-      <c r="AP42" t="n">
-        <v>2.1774498535</v>
-      </c>
+      <c r="AP42"/>
       <c r="AQ42"/>
       <c r="AR42"/>
       <c r="AS42"/>
@@ -5017,9 +5018,11 @@
       <c r="BP42"/>
       <c r="BQ42"/>
       <c r="BR42"/>
-      <c r="BS42"/>
+      <c r="BS42" t="n">
+        <v>3.106628252</v>
+      </c>
       <c r="BT42" t="n">
-        <v>2.1774498535</v>
+        <v>3.106628252</v>
       </c>
     </row>
     <row r="43">
@@ -5039,13 +5042,13 @@
         <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s">
         <v>79</v>
@@ -5081,9 +5084,7 @@
       <c r="AL43"/>
       <c r="AM43"/>
       <c r="AN43"/>
-      <c r="AO43" t="n">
-        <v>8018.2895232</v>
-      </c>
+      <c r="AO43"/>
       <c r="AP43"/>
       <c r="AQ43"/>
       <c r="AR43"/>
@@ -5113,9 +5114,11 @@
       <c r="BP43"/>
       <c r="BQ43"/>
       <c r="BR43"/>
-      <c r="BS43"/>
+      <c r="BS43" t="n">
+        <v>2.9402017385</v>
+      </c>
       <c r="BT43" t="n">
-        <v>8018.2895232</v>
+        <v>2.9402017385</v>
       </c>
     </row>
     <row r="44">
@@ -5138,10 +5141,10 @@
         <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I44" t="s">
         <v>79</v>
@@ -5177,10 +5180,10 @@
       <c r="AL44"/>
       <c r="AM44"/>
       <c r="AN44"/>
-      <c r="AO44" t="n">
-        <v>4.001998336</v>
-      </c>
-      <c r="AP44"/>
+      <c r="AO44"/>
+      <c r="AP44" t="n">
+        <v>4609.6202559</v>
+      </c>
       <c r="AQ44"/>
       <c r="AR44"/>
       <c r="AS44"/>
@@ -5211,7 +5214,7 @@
       <c r="BR44"/>
       <c r="BS44"/>
       <c r="BT44" t="n">
-        <v>4.001998336</v>
+        <v>4609.6202559</v>
       </c>
     </row>
     <row r="45">
@@ -5234,7 +5237,7 @@
         <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s">
         <v>80</v>
@@ -5273,10 +5276,10 @@
       <c r="AL45"/>
       <c r="AM45"/>
       <c r="AN45"/>
-      <c r="AO45" t="n">
-        <v>3.787605568</v>
-      </c>
-      <c r="AP45"/>
+      <c r="AO45"/>
+      <c r="AP45" t="n">
+        <v>2.300701732</v>
+      </c>
       <c r="AQ45"/>
       <c r="AR45"/>
       <c r="AS45"/>
@@ -5307,7 +5310,7 @@
       <c r="BR45"/>
       <c r="BS45"/>
       <c r="BT45" t="n">
-        <v>3.787605568</v>
+        <v>2.300701732</v>
       </c>
     </row>
     <row r="46">
@@ -5327,13 +5330,13 @@
         <v>75</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
         <v>79</v>
@@ -5370,11 +5373,11 @@
       <c r="AM46"/>
       <c r="AN46"/>
       <c r="AO46"/>
-      <c r="AP46"/>
+      <c r="AP46" t="n">
+        <v>2.1774498535</v>
+      </c>
       <c r="AQ46"/>
-      <c r="AR46" t="n">
-        <v>253.0902132</v>
-      </c>
+      <c r="AR46"/>
       <c r="AS46"/>
       <c r="AT46"/>
       <c r="AU46"/>
@@ -5403,7 +5406,7 @@
       <c r="BR46"/>
       <c r="BS46"/>
       <c r="BT46" t="n">
-        <v>253.0902132</v>
+        <v>2.1774498535</v>
       </c>
     </row>
     <row r="47">
@@ -5423,13 +5426,13 @@
         <v>75</v>
       </c>
       <c r="F47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" t="s">
         <v>84</v>
-      </c>
-      <c r="G47" t="s">
-        <v>92</v>
-      </c>
-      <c r="H47" t="s">
-        <v>78</v>
       </c>
       <c r="I47" t="s">
         <v>79</v>
@@ -5465,12 +5468,12 @@
       <c r="AL47"/>
       <c r="AM47"/>
       <c r="AN47"/>
-      <c r="AO47"/>
+      <c r="AO47" t="n">
+        <v>8018.2895232</v>
+      </c>
       <c r="AP47"/>
       <c r="AQ47"/>
-      <c r="AR47" t="n">
-        <v>0.126319536</v>
-      </c>
+      <c r="AR47"/>
       <c r="AS47"/>
       <c r="AT47"/>
       <c r="AU47"/>
@@ -5499,7 +5502,7 @@
       <c r="BR47"/>
       <c r="BS47"/>
       <c r="BT47" t="n">
-        <v>0.126319536</v>
+        <v>8018.2895232</v>
       </c>
     </row>
     <row r="48">
@@ -5519,10 +5522,10 @@
         <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s">
         <v>80</v>
@@ -5561,12 +5564,12 @@
       <c r="AL48"/>
       <c r="AM48"/>
       <c r="AN48"/>
-      <c r="AO48"/>
+      <c r="AO48" t="n">
+        <v>4.001998336</v>
+      </c>
       <c r="AP48"/>
       <c r="AQ48"/>
-      <c r="AR48" t="n">
-        <v>0.119552418</v>
-      </c>
+      <c r="AR48"/>
       <c r="AS48"/>
       <c r="AT48"/>
       <c r="AU48"/>
@@ -5595,7 +5598,7 @@
       <c r="BR48"/>
       <c r="BS48"/>
       <c r="BT48" t="n">
-        <v>0.119552418</v>
+        <v>4.001998336</v>
       </c>
     </row>
     <row r="49">
@@ -5618,10 +5621,10 @@
         <v>95</v>
       </c>
       <c r="G49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s">
         <v>79</v>
@@ -5657,7 +5660,9 @@
       <c r="AL49"/>
       <c r="AM49"/>
       <c r="AN49"/>
-      <c r="AO49"/>
+      <c r="AO49" t="n">
+        <v>3.787605568</v>
+      </c>
       <c r="AP49"/>
       <c r="AQ49"/>
       <c r="AR49"/>
@@ -5670,9 +5675,7 @@
       <c r="AY49"/>
       <c r="AZ49"/>
       <c r="BA49"/>
-      <c r="BB49" t="n">
-        <v>15070.0596915</v>
-      </c>
+      <c r="BB49"/>
       <c r="BC49"/>
       <c r="BD49"/>
       <c r="BE49"/>
@@ -5691,7 +5694,7 @@
       <c r="BR49"/>
       <c r="BS49"/>
       <c r="BT49" t="n">
-        <v>15070.0596915</v>
+        <v>3.787605568</v>
       </c>
     </row>
     <row r="50">
@@ -5711,13 +5714,13 @@
         <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s">
         <v>79</v>
@@ -5756,7 +5759,9 @@
       <c r="AO50"/>
       <c r="AP50"/>
       <c r="AQ50"/>
-      <c r="AR50"/>
+      <c r="AR50" t="n">
+        <v>253.0902132</v>
+      </c>
       <c r="AS50"/>
       <c r="AT50"/>
       <c r="AU50"/>
@@ -5766,9 +5771,7 @@
       <c r="AY50"/>
       <c r="AZ50"/>
       <c r="BA50"/>
-      <c r="BB50" t="n">
-        <v>7.52159842</v>
-      </c>
+      <c r="BB50"/>
       <c r="BC50"/>
       <c r="BD50"/>
       <c r="BE50"/>
@@ -5787,7 +5790,7 @@
       <c r="BR50"/>
       <c r="BS50"/>
       <c r="BT50" t="n">
-        <v>7.52159842</v>
+        <v>253.0902132</v>
       </c>
     </row>
     <row r="51">
@@ -5807,10 +5810,10 @@
         <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s">
         <v>80</v>
@@ -5852,7 +5855,9 @@
       <c r="AO51"/>
       <c r="AP51"/>
       <c r="AQ51"/>
-      <c r="AR51"/>
+      <c r="AR51" t="n">
+        <v>0.126319536</v>
+      </c>
       <c r="AS51"/>
       <c r="AT51"/>
       <c r="AU51"/>
@@ -5862,9 +5867,7 @@
       <c r="AY51"/>
       <c r="AZ51"/>
       <c r="BA51"/>
-      <c r="BB51" t="n">
-        <v>7.1186556475</v>
-      </c>
+      <c r="BB51"/>
       <c r="BC51"/>
       <c r="BD51"/>
       <c r="BE51"/>
@@ -5883,7 +5886,7 @@
       <c r="BR51"/>
       <c r="BS51"/>
       <c r="BT51" t="n">
-        <v>7.1186556475</v>
+        <v>0.126319536</v>
       </c>
     </row>
     <row r="52">
@@ -5903,13 +5906,13 @@
         <v>75</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s">
         <v>79</v>
@@ -5949,7 +5952,7 @@
       <c r="AP52"/>
       <c r="AQ52"/>
       <c r="AR52" t="n">
-        <v>1148.1831603</v>
+        <v>0.119552418</v>
       </c>
       <c r="AS52"/>
       <c r="AT52"/>
@@ -5979,7 +5982,7 @@
       <c r="BR52"/>
       <c r="BS52"/>
       <c r="BT52" t="n">
-        <v>1148.1831603</v>
+        <v>0.119552418</v>
       </c>
     </row>
     <row r="53">
@@ -6002,10 +6005,10 @@
         <v>96</v>
       </c>
       <c r="G53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s">
         <v>79</v>
@@ -6044,9 +6047,7 @@
       <c r="AO53"/>
       <c r="AP53"/>
       <c r="AQ53"/>
-      <c r="AR53" t="n">
-        <v>0.573068244</v>
-      </c>
+      <c r="AR53"/>
       <c r="AS53"/>
       <c r="AT53"/>
       <c r="AU53"/>
@@ -6056,7 +6057,9 @@
       <c r="AY53"/>
       <c r="AZ53"/>
       <c r="BA53"/>
-      <c r="BB53"/>
+      <c r="BB53" t="n">
+        <v>15070.0596915</v>
+      </c>
       <c r="BC53"/>
       <c r="BD53"/>
       <c r="BE53"/>
@@ -6075,7 +6078,7 @@
       <c r="BR53"/>
       <c r="BS53"/>
       <c r="BT53" t="n">
-        <v>0.573068244</v>
+        <v>15070.0596915</v>
       </c>
     </row>
     <row r="54">
@@ -6098,7 +6101,7 @@
         <v>96</v>
       </c>
       <c r="G54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s">
         <v>80</v>
@@ -6140,9 +6143,7 @@
       <c r="AO54"/>
       <c r="AP54"/>
       <c r="AQ54"/>
-      <c r="AR54" t="n">
-        <v>0.5423681595</v>
-      </c>
+      <c r="AR54"/>
       <c r="AS54"/>
       <c r="AT54"/>
       <c r="AU54"/>
@@ -6152,7 +6153,9 @@
       <c r="AY54"/>
       <c r="AZ54"/>
       <c r="BA54"/>
-      <c r="BB54"/>
+      <c r="BB54" t="n">
+        <v>7.52159842</v>
+      </c>
       <c r="BC54"/>
       <c r="BD54"/>
       <c r="BE54"/>
@@ -6171,7 +6174,7 @@
       <c r="BR54"/>
       <c r="BS54"/>
       <c r="BT54" t="n">
-        <v>0.5423681595</v>
+        <v>7.52159842</v>
       </c>
     </row>
     <row r="55">
@@ -6191,13 +6194,13 @@
         <v>75</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G55" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s">
         <v>79</v>
@@ -6246,7 +6249,9 @@
       <c r="AY55"/>
       <c r="AZ55"/>
       <c r="BA55"/>
-      <c r="BB55"/>
+      <c r="BB55" t="n">
+        <v>7.1186556475</v>
+      </c>
       <c r="BC55"/>
       <c r="BD55"/>
       <c r="BE55"/>
@@ -6263,11 +6268,9 @@
       <c r="BP55"/>
       <c r="BQ55"/>
       <c r="BR55"/>
-      <c r="BS55" t="n">
-        <v>1489.627634418</v>
-      </c>
+      <c r="BS55"/>
       <c r="BT55" t="n">
-        <v>1489.627634418</v>
+        <v>7.1186556475</v>
       </c>
     </row>
     <row r="56">
@@ -6287,13 +6290,13 @@
         <v>75</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I56" t="s">
         <v>79</v>
@@ -6332,7 +6335,9 @@
       <c r="AO56"/>
       <c r="AP56"/>
       <c r="AQ56"/>
-      <c r="AR56"/>
+      <c r="AR56" t="n">
+        <v>1148.1831603</v>
+      </c>
       <c r="AS56"/>
       <c r="AT56"/>
       <c r="AU56"/>
@@ -6359,11 +6364,9 @@
       <c r="BP56"/>
       <c r="BQ56"/>
       <c r="BR56"/>
-      <c r="BS56" t="n">
-        <v>0.44090458524</v>
-      </c>
+      <c r="BS56"/>
       <c r="BT56" t="n">
-        <v>0.44090458524</v>
+        <v>1148.1831603</v>
       </c>
     </row>
     <row r="57">
@@ -6383,10 +6386,10 @@
         <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G57" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s">
         <v>80</v>
@@ -6428,7 +6431,9 @@
       <c r="AO57"/>
       <c r="AP57"/>
       <c r="AQ57"/>
-      <c r="AR57"/>
+      <c r="AR57" t="n">
+        <v>0.573068244</v>
+      </c>
       <c r="AS57"/>
       <c r="AT57"/>
       <c r="AU57"/>
@@ -6455,11 +6460,9 @@
       <c r="BP57"/>
       <c r="BQ57"/>
       <c r="BR57"/>
-      <c r="BS57" t="n">
-        <v>6.259270451175</v>
-      </c>
+      <c r="BS57"/>
       <c r="BT57" t="n">
-        <v>6.259270451175</v>
+        <v>0.573068244</v>
       </c>
     </row>
     <row r="58">
@@ -6479,13 +6482,13 @@
         <v>75</v>
       </c>
       <c r="F58" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s">
         <v>79</v>
@@ -6525,7 +6528,7 @@
       <c r="AP58"/>
       <c r="AQ58"/>
       <c r="AR58" t="n">
-        <v>22.991947875</v>
+        <v>0.5423681595</v>
       </c>
       <c r="AS58"/>
       <c r="AT58"/>
@@ -6555,7 +6558,7 @@
       <c r="BR58"/>
       <c r="BS58"/>
       <c r="BT58" t="n">
-        <v>22.991947875</v>
+        <v>0.5423681595</v>
       </c>
     </row>
     <row r="59">
@@ -6575,13 +6578,13 @@
         <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
         <v>98</v>
       </c>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I59" t="s">
         <v>79</v>
@@ -6620,9 +6623,7 @@
       <c r="AO59"/>
       <c r="AP59"/>
       <c r="AQ59"/>
-      <c r="AR59" t="n">
-        <v>0.0198084474</v>
-      </c>
+      <c r="AR59"/>
       <c r="AS59"/>
       <c r="AT59"/>
       <c r="AU59"/>
@@ -6649,9 +6650,11 @@
       <c r="BP59"/>
       <c r="BQ59"/>
       <c r="BR59"/>
-      <c r="BS59"/>
+      <c r="BS59" t="n">
+        <v>1489.627634418</v>
+      </c>
       <c r="BT59" t="n">
-        <v>0.0198084474</v>
+        <v>1489.627634418</v>
       </c>
     </row>
     <row r="60">
@@ -6671,7 +6674,7 @@
         <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s">
         <v>98</v>
@@ -6716,9 +6719,7 @@
       <c r="AO60"/>
       <c r="AP60"/>
       <c r="AQ60"/>
-      <c r="AR60" t="n">
-        <v>0.03749456115</v>
-      </c>
+      <c r="AR60"/>
       <c r="AS60"/>
       <c r="AT60"/>
       <c r="AU60"/>
@@ -6745,9 +6746,11 @@
       <c r="BP60"/>
       <c r="BQ60"/>
       <c r="BR60"/>
-      <c r="BS60"/>
+      <c r="BS60" t="n">
+        <v>0.44090458524</v>
+      </c>
       <c r="BT60" t="n">
-        <v>0.03749456115</v>
+        <v>0.44090458524</v>
       </c>
     </row>
     <row r="61">
@@ -6767,13 +6770,13 @@
         <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s">
         <v>79</v>
@@ -6812,9 +6815,7 @@
       <c r="AO61"/>
       <c r="AP61"/>
       <c r="AQ61"/>
-      <c r="AR61" t="n">
-        <v>71.36811072</v>
-      </c>
+      <c r="AR61"/>
       <c r="AS61"/>
       <c r="AT61"/>
       <c r="AU61"/>
@@ -6841,9 +6842,11 @@
       <c r="BP61"/>
       <c r="BQ61"/>
       <c r="BR61"/>
-      <c r="BS61"/>
+      <c r="BS61" t="n">
+        <v>6.259270451175</v>
+      </c>
       <c r="BT61" t="n">
-        <v>71.36811072</v>
+        <v>6.259270451175</v>
       </c>
     </row>
     <row r="62">
@@ -6863,13 +6866,13 @@
         <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s">
         <v>99</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s">
         <v>79</v>
@@ -6909,7 +6912,7 @@
       <c r="AP62"/>
       <c r="AQ62"/>
       <c r="AR62" t="n">
-        <v>0.0346928316</v>
+        <v>22.991947875</v>
       </c>
       <c r="AS62"/>
       <c r="AT62"/>
@@ -6939,7 +6942,7 @@
       <c r="BR62"/>
       <c r="BS62"/>
       <c r="BT62" t="n">
-        <v>0.0346928316</v>
+        <v>22.991947875</v>
       </c>
     </row>
     <row r="63">
@@ -6959,7 +6962,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
         <v>99</v>
@@ -7005,7 +7008,7 @@
       <c r="AP63"/>
       <c r="AQ63"/>
       <c r="AR63" t="n">
-        <v>0.03283428705</v>
+        <v>0.0198084474</v>
       </c>
       <c r="AS63"/>
       <c r="AT63"/>
@@ -7035,7 +7038,7 @@
       <c r="BR63"/>
       <c r="BS63"/>
       <c r="BT63" t="n">
-        <v>0.03283428705</v>
+        <v>0.0198084474</v>
       </c>
     </row>
     <row r="64">
@@ -7049,19 +7052,19 @@
         <v>2018</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E64" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s">
         <v>79</v>
@@ -7100,7 +7103,9 @@
       <c r="AO64"/>
       <c r="AP64"/>
       <c r="AQ64"/>
-      <c r="AR64"/>
+      <c r="AR64" t="n">
+        <v>0.03749456115</v>
+      </c>
       <c r="AS64"/>
       <c r="AT64"/>
       <c r="AU64"/>
@@ -7117,9 +7122,7 @@
       <c r="BF64"/>
       <c r="BG64"/>
       <c r="BH64"/>
-      <c r="BI64" t="n">
-        <v>13.967598995035</v>
-      </c>
+      <c r="BI64"/>
       <c r="BJ64"/>
       <c r="BK64"/>
       <c r="BL64"/>
@@ -7131,7 +7134,7 @@
       <c r="BR64"/>
       <c r="BS64"/>
       <c r="BT64" t="n">
-        <v>13.967598995035</v>
+        <v>0.03749456115</v>
       </c>
     </row>
     <row r="65">
@@ -7145,19 +7148,19 @@
         <v>2018</v>
       </c>
       <c r="D65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" t="s">
         <v>100</v>
       </c>
-      <c r="E65" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G65" t="s">
-        <v>103</v>
-      </c>
       <c r="H65" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="I65" t="s">
         <v>79</v>
@@ -7196,7 +7199,9 @@
       <c r="AO65"/>
       <c r="AP65"/>
       <c r="AQ65"/>
-      <c r="AR65"/>
+      <c r="AR65" t="n">
+        <v>71.36811072</v>
+      </c>
       <c r="AS65"/>
       <c r="AT65"/>
       <c r="AU65"/>
@@ -7213,9 +7218,7 @@
       <c r="BF65"/>
       <c r="BG65"/>
       <c r="BH65"/>
-      <c r="BI65" t="n">
-        <v>36371.48732</v>
-      </c>
+      <c r="BI65"/>
       <c r="BJ65"/>
       <c r="BK65"/>
       <c r="BL65"/>
@@ -7227,7 +7230,7 @@
       <c r="BR65"/>
       <c r="BS65"/>
       <c r="BT65" t="n">
-        <v>36371.48732</v>
+        <v>71.36811072</v>
       </c>
     </row>
     <row r="66">
@@ -7241,19 +7244,19 @@
         <v>2018</v>
       </c>
       <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" t="s">
         <v>100</v>
       </c>
-      <c r="E66" t="s">
-        <v>101</v>
-      </c>
-      <c r="F66" t="s">
-        <v>102</v>
-      </c>
-      <c r="G66" t="s">
-        <v>103</v>
-      </c>
       <c r="H66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s">
         <v>79</v>
@@ -7292,7 +7295,9 @@
       <c r="AO66"/>
       <c r="AP66"/>
       <c r="AQ66"/>
-      <c r="AR66"/>
+      <c r="AR66" t="n">
+        <v>0.0346928316</v>
+      </c>
       <c r="AS66"/>
       <c r="AT66"/>
       <c r="AU66"/>
@@ -7309,9 +7314,7 @@
       <c r="BF66"/>
       <c r="BG66"/>
       <c r="BH66"/>
-      <c r="BI66" t="n">
-        <v>11604.089555057</v>
-      </c>
+      <c r="BI66"/>
       <c r="BJ66"/>
       <c r="BK66"/>
       <c r="BL66"/>
@@ -7323,7 +7326,7 @@
       <c r="BR66"/>
       <c r="BS66"/>
       <c r="BT66" t="n">
-        <v>11604.089555057</v>
+        <v>0.0346928316</v>
       </c>
     </row>
     <row r="67">
@@ -7337,19 +7340,19 @@
         <v>2018</v>
       </c>
       <c r="D67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" t="s">
         <v>100</v>
       </c>
-      <c r="E67" t="s">
-        <v>101</v>
-      </c>
-      <c r="F67" t="s">
-        <v>102</v>
-      </c>
-      <c r="G67" t="s">
-        <v>103</v>
-      </c>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I67" t="s">
         <v>79</v>
@@ -7388,7 +7391,9 @@
       <c r="AO67"/>
       <c r="AP67"/>
       <c r="AQ67"/>
-      <c r="AR67"/>
+      <c r="AR67" t="n">
+        <v>0.03283428705</v>
+      </c>
       <c r="AS67"/>
       <c r="AT67"/>
       <c r="AU67"/>
@@ -7405,9 +7410,7 @@
       <c r="BF67"/>
       <c r="BG67"/>
       <c r="BH67"/>
-      <c r="BI67" t="n">
-        <v>140.56064757</v>
-      </c>
+      <c r="BI67"/>
       <c r="BJ67"/>
       <c r="BK67"/>
       <c r="BL67"/>
@@ -7419,7 +7422,7 @@
       <c r="BR67"/>
       <c r="BS67"/>
       <c r="BT67" t="n">
-        <v>140.56064757</v>
+        <v>0.03283428705</v>
       </c>
     </row>
     <row r="68">
@@ -7433,19 +7436,19 @@
         <v>2018</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I68" t="s">
         <v>79</v>
@@ -7480,9 +7483,7 @@
       <c r="AK68"/>
       <c r="AL68"/>
       <c r="AM68"/>
-      <c r="AN68" t="n">
-        <v>15596.944439247</v>
-      </c>
+      <c r="AN68"/>
       <c r="AO68"/>
       <c r="AP68"/>
       <c r="AQ68"/>
@@ -7513,9 +7514,11 @@
       <c r="BP68"/>
       <c r="BQ68"/>
       <c r="BR68"/>
-      <c r="BS68"/>
+      <c r="BS68" t="n">
+        <v>26066.5</v>
+      </c>
       <c r="BT68" t="n">
-        <v>15596.944439247</v>
+        <v>26066.5</v>
       </c>
     </row>
     <row r="69">
@@ -7529,19 +7532,19 @@
         <v>2018</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I69" t="s">
         <v>79</v>
@@ -7576,9 +7579,7 @@
       <c r="AK69"/>
       <c r="AL69"/>
       <c r="AM69"/>
-      <c r="AN69" t="n">
-        <v>92928.2661179208</v>
-      </c>
+      <c r="AN69"/>
       <c r="AO69"/>
       <c r="AP69"/>
       <c r="AQ69"/>
@@ -7609,9 +7610,11 @@
       <c r="BP69"/>
       <c r="BQ69"/>
       <c r="BR69"/>
-      <c r="BS69"/>
+      <c r="BS69" t="n">
+        <v>218.9586</v>
+      </c>
       <c r="BT69" t="n">
-        <v>92928.2661179208</v>
+        <v>218.9586</v>
       </c>
     </row>
     <row r="70">
@@ -7625,19 +7628,19 @@
         <v>2018</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I70" t="s">
         <v>79</v>
@@ -7672,9 +7675,7 @@
       <c r="AK70"/>
       <c r="AL70"/>
       <c r="AM70"/>
-      <c r="AN70" t="n">
-        <v>57.3251271197975</v>
-      </c>
+      <c r="AN70"/>
       <c r="AO70"/>
       <c r="AP70"/>
       <c r="AQ70"/>
@@ -7705,9 +7706,11 @@
       <c r="BP70"/>
       <c r="BQ70"/>
       <c r="BR70"/>
-      <c r="BS70"/>
+      <c r="BS70" t="n">
+        <v>276.3049</v>
+      </c>
       <c r="BT70" t="n">
-        <v>57.3251271197975</v>
+        <v>276.3049</v>
       </c>
     </row>
     <row r="71">
@@ -7721,19 +7724,19 @@
         <v>2018</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F71" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G71" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I71" t="s">
         <v>79</v>
@@ -7777,9 +7780,7 @@
       <c r="AT71"/>
       <c r="AU71"/>
       <c r="AV71"/>
-      <c r="AW71" t="n">
-        <v>8747.606714</v>
-      </c>
+      <c r="AW71"/>
       <c r="AX71"/>
       <c r="AY71"/>
       <c r="AZ71"/>
@@ -7791,7 +7792,9 @@
       <c r="BF71"/>
       <c r="BG71"/>
       <c r="BH71"/>
-      <c r="BI71"/>
+      <c r="BI71" t="n">
+        <v>13.967598995035</v>
+      </c>
       <c r="BJ71"/>
       <c r="BK71"/>
       <c r="BL71"/>
@@ -7803,7 +7806,7 @@
       <c r="BR71"/>
       <c r="BS71"/>
       <c r="BT71" t="n">
-        <v>8747.606714</v>
+        <v>13.967598995035</v>
       </c>
     </row>
     <row r="72">
@@ -7817,19 +7820,19 @@
         <v>2018</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G72" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I72" t="s">
         <v>79</v>
@@ -7872,9 +7875,7 @@
       <c r="AS72"/>
       <c r="AT72"/>
       <c r="AU72"/>
-      <c r="AV72" t="n">
-        <v>9.4325859499204</v>
-      </c>
+      <c r="AV72"/>
       <c r="AW72"/>
       <c r="AX72"/>
       <c r="AY72"/>
@@ -7887,7 +7888,9 @@
       <c r="BF72"/>
       <c r="BG72"/>
       <c r="BH72"/>
-      <c r="BI72"/>
+      <c r="BI72" t="n">
+        <v>36371.48732</v>
+      </c>
       <c r="BJ72"/>
       <c r="BK72"/>
       <c r="BL72"/>
@@ -7899,7 +7902,7 @@
       <c r="BR72"/>
       <c r="BS72"/>
       <c r="BT72" t="n">
-        <v>9.4325859499204</v>
+        <v>36371.48732</v>
       </c>
     </row>
     <row r="73">
@@ -7913,19 +7916,19 @@
         <v>2018</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H73" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s">
         <v>79</v>
@@ -7981,11 +7984,11 @@
       <c r="BF73"/>
       <c r="BG73"/>
       <c r="BH73"/>
-      <c r="BI73"/>
+      <c r="BI73" t="n">
+        <v>11604.089555057</v>
+      </c>
       <c r="BJ73"/>
-      <c r="BK73" t="n">
-        <v>103.882563865</v>
-      </c>
+      <c r="BK73"/>
       <c r="BL73"/>
       <c r="BM73"/>
       <c r="BN73"/>
@@ -7995,7 +7998,7 @@
       <c r="BR73"/>
       <c r="BS73"/>
       <c r="BT73" t="n">
-        <v>103.882563865</v>
+        <v>11604.089555057</v>
       </c>
     </row>
     <row r="74">
@@ -8009,19 +8012,19 @@
         <v>2018</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E74" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F74" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I74" t="s">
         <v>79</v>
@@ -8061,9 +8064,7 @@
       <c r="AP74"/>
       <c r="AQ74"/>
       <c r="AR74"/>
-      <c r="AS74" t="n">
-        <v>2067.80890559</v>
-      </c>
+      <c r="AS74"/>
       <c r="AT74"/>
       <c r="AU74"/>
       <c r="AV74"/>
@@ -8079,7 +8080,9 @@
       <c r="BF74"/>
       <c r="BG74"/>
       <c r="BH74"/>
-      <c r="BI74"/>
+      <c r="BI74" t="n">
+        <v>140.56064757</v>
+      </c>
       <c r="BJ74"/>
       <c r="BK74"/>
       <c r="BL74"/>
@@ -8091,7 +8094,7 @@
       <c r="BR74"/>
       <c r="BS74"/>
       <c r="BT74" t="n">
-        <v>2067.80890559</v>
+        <v>140.56064757</v>
       </c>
     </row>
     <row r="75">
@@ -8105,19 +8108,19 @@
         <v>2018</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G75" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H75" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I75" t="s">
         <v>79</v>
@@ -8152,14 +8155,14 @@
       <c r="AK75"/>
       <c r="AL75"/>
       <c r="AM75"/>
-      <c r="AN75"/>
+      <c r="AN75" t="n">
+        <v>15596.944439247</v>
+      </c>
       <c r="AO75"/>
       <c r="AP75"/>
       <c r="AQ75"/>
       <c r="AR75"/>
-      <c r="AS75" t="n">
-        <v>2.79216</v>
-      </c>
+      <c r="AS75"/>
       <c r="AT75"/>
       <c r="AU75"/>
       <c r="AV75"/>
@@ -8187,7 +8190,7 @@
       <c r="BR75"/>
       <c r="BS75"/>
       <c r="BT75" t="n">
-        <v>2.79216</v>
+        <v>15596.944439247</v>
       </c>
     </row>
     <row r="76">
@@ -8201,19 +8204,19 @@
         <v>2018</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E76" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G76" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I76" t="s">
         <v>79</v>
@@ -8248,7 +8251,9 @@
       <c r="AK76"/>
       <c r="AL76"/>
       <c r="AM76"/>
-      <c r="AN76"/>
+      <c r="AN76" t="n">
+        <v>92928.2661179208</v>
+      </c>
       <c r="AO76"/>
       <c r="AP76"/>
       <c r="AQ76"/>
@@ -8259,9 +8264,7 @@
       <c r="AV76"/>
       <c r="AW76"/>
       <c r="AX76"/>
-      <c r="AY76" t="n">
-        <v>26.77064</v>
-      </c>
+      <c r="AY76"/>
       <c r="AZ76"/>
       <c r="BA76"/>
       <c r="BB76"/>
@@ -8283,7 +8286,7 @@
       <c r="BR76"/>
       <c r="BS76"/>
       <c r="BT76" t="n">
-        <v>26.77064</v>
+        <v>92928.2661179208</v>
       </c>
     </row>
     <row r="77">
@@ -8297,19 +8300,19 @@
         <v>2018</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F77" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G77" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H77" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="I77" t="s">
         <v>79</v>
@@ -8344,7 +8347,9 @@
       <c r="AK77"/>
       <c r="AL77"/>
       <c r="AM77"/>
-      <c r="AN77"/>
+      <c r="AN77" t="n">
+        <v>57.3251271197975</v>
+      </c>
       <c r="AO77"/>
       <c r="AP77"/>
       <c r="AQ77"/>
@@ -8377,7 +8382,7 @@
       <c r="BR77"/>
       <c r="BS77"/>
       <c r="BT77" t="n">
-        <v>0</v>
+        <v>57.3251271197975</v>
       </c>
     </row>
     <row r="78">
@@ -8391,19 +8396,19 @@
         <v>2018</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G78" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I78" t="s">
         <v>79</v>
@@ -8447,7 +8452,9 @@
       <c r="AT78"/>
       <c r="AU78"/>
       <c r="AV78"/>
-      <c r="AW78"/>
+      <c r="AW78" t="n">
+        <v>8747.606714</v>
+      </c>
       <c r="AX78"/>
       <c r="AY78"/>
       <c r="AZ78"/>
@@ -8462,9 +8469,7 @@
       <c r="BI78"/>
       <c r="BJ78"/>
       <c r="BK78"/>
-      <c r="BL78" t="n">
-        <v>539.6753417721</v>
-      </c>
+      <c r="BL78"/>
       <c r="BM78"/>
       <c r="BN78"/>
       <c r="BO78"/>
@@ -8473,7 +8478,7 @@
       <c r="BR78"/>
       <c r="BS78"/>
       <c r="BT78" t="n">
-        <v>539.6753417721</v>
+        <v>8747.606714</v>
       </c>
     </row>
     <row r="79">
@@ -8487,19 +8492,19 @@
         <v>2018</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H79" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="I79" t="s">
         <v>79</v>
@@ -8542,7 +8547,9 @@
       <c r="AS79"/>
       <c r="AT79"/>
       <c r="AU79"/>
-      <c r="AV79"/>
+      <c r="AV79" t="n">
+        <v>9.4325859499204</v>
+      </c>
       <c r="AW79"/>
       <c r="AX79"/>
       <c r="AY79"/>
@@ -8559,9 +8566,7 @@
       <c r="BJ79"/>
       <c r="BK79"/>
       <c r="BL79"/>
-      <c r="BM79" t="n">
-        <v>8419.323442671</v>
-      </c>
+      <c r="BM79"/>
       <c r="BN79"/>
       <c r="BO79"/>
       <c r="BP79"/>
@@ -8569,7 +8574,7 @@
       <c r="BR79"/>
       <c r="BS79"/>
       <c r="BT79" t="n">
-        <v>8419.323442671</v>
+        <v>9.4325859499204</v>
       </c>
     </row>
     <row r="80">
@@ -8583,19 +8588,19 @@
         <v>2018</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E80" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G80" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H80" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I80" t="s">
         <v>79</v>
@@ -8653,19 +8658,19 @@
       <c r="BH80"/>
       <c r="BI80"/>
       <c r="BJ80"/>
-      <c r="BK80"/>
+      <c r="BK80" t="n">
+        <v>103.882563865</v>
+      </c>
       <c r="BL80"/>
       <c r="BM80"/>
-      <c r="BN80" t="n">
-        <v>0.570976315855</v>
-      </c>
+      <c r="BN80"/>
       <c r="BO80"/>
       <c r="BP80"/>
       <c r="BQ80"/>
       <c r="BR80"/>
       <c r="BS80"/>
       <c r="BT80" t="n">
-        <v>0.570976315855</v>
+        <v>103.882563865</v>
       </c>
     </row>
     <row r="81">
@@ -8679,19 +8684,19 @@
         <v>2018</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E81" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G81" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H81" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="I81" t="s">
         <v>79</v>
@@ -8731,7 +8736,9 @@
       <c r="AP81"/>
       <c r="AQ81"/>
       <c r="AR81"/>
-      <c r="AS81"/>
+      <c r="AS81" t="n">
+        <v>2067.80890559</v>
+      </c>
       <c r="AT81"/>
       <c r="AU81"/>
       <c r="AV81"/>
@@ -8752,16 +8759,14 @@
       <c r="BK81"/>
       <c r="BL81"/>
       <c r="BM81"/>
-      <c r="BN81" t="n">
-        <v>46.5497493</v>
-      </c>
+      <c r="BN81"/>
       <c r="BO81"/>
       <c r="BP81"/>
       <c r="BQ81"/>
       <c r="BR81"/>
       <c r="BS81"/>
       <c r="BT81" t="n">
-        <v>46.5497493</v>
+        <v>2067.80890559</v>
       </c>
     </row>
     <row r="82">
@@ -8775,19 +8780,19 @@
         <v>2018</v>
       </c>
       <c r="D82" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E82" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G82" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H82" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="I82" t="s">
         <v>79</v>
@@ -8827,7 +8832,9 @@
       <c r="AP82"/>
       <c r="AQ82"/>
       <c r="AR82"/>
-      <c r="AS82"/>
+      <c r="AS82" t="n">
+        <v>2.79216</v>
+      </c>
       <c r="AT82"/>
       <c r="AU82"/>
       <c r="AV82"/>
@@ -8848,16 +8855,14 @@
       <c r="BK82"/>
       <c r="BL82"/>
       <c r="BM82"/>
-      <c r="BN82" t="n">
-        <v>593.845</v>
-      </c>
+      <c r="BN82"/>
       <c r="BO82"/>
       <c r="BP82"/>
       <c r="BQ82"/>
       <c r="BR82"/>
       <c r="BS82"/>
       <c r="BT82" t="n">
-        <v>593.845</v>
+        <v>2.79216</v>
       </c>
     </row>
     <row r="83">
@@ -8871,19 +8876,19 @@
         <v>2018</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E83" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F83" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G83" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H83" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I83" t="s">
         <v>79</v>
@@ -8901,35 +8906,17 @@
       <c r="T83"/>
       <c r="U83"/>
       <c r="V83"/>
-      <c r="W83" t="n">
-        <v>2790.5332</v>
-      </c>
-      <c r="X83" t="n">
-        <v>15688.2684</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>51.5088</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>370.0032</v>
-      </c>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
       <c r="AA83"/>
-      <c r="AB83" t="n">
-        <v>360.6512</v>
-      </c>
+      <c r="AB83"/>
       <c r="AC83"/>
-      <c r="AD83" t="n">
-        <v>6385.3496</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>11185.0284</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>208.1492</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>23.128</v>
-      </c>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
       <c r="AH83"/>
       <c r="AI83"/>
       <c r="AJ83"/>
@@ -8947,7 +8934,9 @@
       <c r="AV83"/>
       <c r="AW83"/>
       <c r="AX83"/>
-      <c r="AY83"/>
+      <c r="AY83" t="n">
+        <v>26.77064</v>
+      </c>
       <c r="AZ83"/>
       <c r="BA83"/>
       <c r="BB83"/>
@@ -8969,7 +8958,7 @@
       <c r="BR83"/>
       <c r="BS83"/>
       <c r="BT83" t="n">
-        <v>37062.62</v>
+        <v>26.77064</v>
       </c>
     </row>
     <row r="84">
@@ -8983,19 +8972,19 @@
         <v>2018</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E84" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F84" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G84" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H84" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="I84" t="s">
         <v>79</v>
@@ -9013,41 +9002,19 @@
       <c r="T84"/>
       <c r="U84"/>
       <c r="V84"/>
-      <c r="W84" t="n">
-        <v>66.727</v>
-      </c>
-      <c r="X84" t="n">
-        <v>68.264</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>3.4185</v>
-      </c>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
       <c r="AA84"/>
-      <c r="AB84" t="n">
-        <v>1.219</v>
-      </c>
+      <c r="AB84"/>
       <c r="AC84"/>
-      <c r="AD84" t="n">
-        <v>62.3015</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>142.252</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>666.5545</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>27.4805</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>82.9715</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>22.79</v>
-      </c>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+      <c r="AG84"/>
+      <c r="AH84"/>
+      <c r="AI84"/>
       <c r="AJ84"/>
       <c r="AK84"/>
       <c r="AL84"/>
@@ -9085,7 +9052,7 @@
       <c r="BR84"/>
       <c r="BS84"/>
       <c r="BT84" t="n">
-        <v>1144.4555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -9099,19 +9066,19 @@
         <v>2018</v>
       </c>
       <c r="D85" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E85" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H85" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I85" t="s">
         <v>79</v>
@@ -9129,41 +9096,19 @@
       <c r="T85"/>
       <c r="U85"/>
       <c r="V85"/>
-      <c r="W85" t="n">
-        <v>17.119</v>
-      </c>
-      <c r="X85" t="n">
-        <v>68.8735</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>0.0795</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>0.6095</v>
-      </c>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
       <c r="AA85"/>
-      <c r="AB85" t="n">
-        <v>0.212</v>
-      </c>
+      <c r="AB85"/>
       <c r="AC85"/>
-      <c r="AD85" t="n">
-        <v>41.1015</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>24.963</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>924.055</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>35.9605</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>29.097</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>8.003</v>
-      </c>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+      <c r="AG85"/>
+      <c r="AH85"/>
+      <c r="AI85"/>
       <c r="AJ85"/>
       <c r="AK85"/>
       <c r="AL85"/>
@@ -9192,7 +9137,9 @@
       <c r="BI85"/>
       <c r="BJ85"/>
       <c r="BK85"/>
-      <c r="BL85"/>
+      <c r="BL85" t="n">
+        <v>539.6753417721</v>
+      </c>
       <c r="BM85"/>
       <c r="BN85"/>
       <c r="BO85"/>
@@ -9201,7 +9148,7 @@
       <c r="BR85"/>
       <c r="BS85"/>
       <c r="BT85" t="n">
-        <v>1150.0735</v>
+        <v>539.6753417721</v>
       </c>
     </row>
     <row r="86">
@@ -9215,19 +9162,19 @@
         <v>2018</v>
       </c>
       <c r="D86" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E86" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F86" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G86" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H86" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I86" t="s">
         <v>79</v>
@@ -9245,41 +9192,19 @@
       <c r="T86"/>
       <c r="U86"/>
       <c r="V86"/>
-      <c r="W86" t="n">
-        <v>60.6648</v>
-      </c>
-      <c r="X86" t="n">
-        <v>506.072</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>6.2664</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>44.3996</v>
-      </c>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
       <c r="AA86"/>
-      <c r="AB86" t="n">
-        <v>20.0704</v>
-      </c>
+      <c r="AB86"/>
       <c r="AC86"/>
-      <c r="AD86" t="n">
-        <v>255.4132</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>492.142</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>208.1492</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>23.128</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>76.4876</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>31.3292</v>
-      </c>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
       <c r="AJ86"/>
       <c r="AK86"/>
       <c r="AL86"/>
@@ -9309,7 +9234,9 @@
       <c r="BJ86"/>
       <c r="BK86"/>
       <c r="BL86"/>
-      <c r="BM86"/>
+      <c r="BM86" t="n">
+        <v>8419.323442671</v>
+      </c>
       <c r="BN86"/>
       <c r="BO86"/>
       <c r="BP86"/>
@@ -9317,7 +9244,7 @@
       <c r="BR86"/>
       <c r="BS86"/>
       <c r="BT86" t="n">
-        <v>1724.1224</v>
+        <v>8419.323442671</v>
       </c>
     </row>
     <row r="87">
@@ -9331,19 +9258,19 @@
         <v>2018</v>
       </c>
       <c r="D87" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E87" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F87" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="G87" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I87" t="s">
         <v>79</v>
@@ -9404,16 +9331,16 @@
       <c r="BK87"/>
       <c r="BL87"/>
       <c r="BM87"/>
-      <c r="BN87"/>
+      <c r="BN87" t="n">
+        <v>0.570976315855</v>
+      </c>
       <c r="BO87"/>
       <c r="BP87"/>
-      <c r="BQ87" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ87"/>
       <c r="BR87"/>
       <c r="BS87"/>
       <c r="BT87" t="n">
-        <v>0</v>
+        <v>0.570976315855</v>
       </c>
     </row>
     <row r="88">
@@ -9427,19 +9354,19 @@
         <v>2018</v>
       </c>
       <c r="D88" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E88" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F88" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="G88" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H88" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="I88" t="s">
         <v>79</v>
@@ -9500,16 +9427,16 @@
       <c r="BK88"/>
       <c r="BL88"/>
       <c r="BM88"/>
-      <c r="BN88"/>
+      <c r="BN88" t="n">
+        <v>46.5497493</v>
+      </c>
       <c r="BO88"/>
       <c r="BP88"/>
-      <c r="BQ88" t="n">
-        <v>45991.2677</v>
-      </c>
+      <c r="BQ88"/>
       <c r="BR88"/>
       <c r="BS88"/>
       <c r="BT88" t="n">
-        <v>45991.2677</v>
+        <v>46.5497493</v>
       </c>
     </row>
     <row r="89">
@@ -9523,19 +9450,19 @@
         <v>2018</v>
       </c>
       <c r="D89" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F89" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="G89" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H89" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="I89" t="s">
         <v>79</v>
@@ -9596,16 +9523,16 @@
       <c r="BK89"/>
       <c r="BL89"/>
       <c r="BM89"/>
-      <c r="BN89"/>
+      <c r="BN89" t="n">
+        <v>593.845</v>
+      </c>
       <c r="BO89"/>
       <c r="BP89"/>
-      <c r="BQ89" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ89"/>
       <c r="BR89"/>
       <c r="BS89"/>
       <c r="BT89" t="n">
-        <v>0</v>
+        <v>593.845</v>
       </c>
     </row>
     <row r="90">
@@ -9619,19 +9546,19 @@
         <v>2018</v>
       </c>
       <c r="D90" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E90" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F90" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G90" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H90" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I90" t="s">
         <v>79</v>
@@ -9649,17 +9576,35 @@
       <c r="T90"/>
       <c r="U90"/>
       <c r="V90"/>
-      <c r="W90"/>
-      <c r="X90"/>
-      <c r="Y90"/>
-      <c r="Z90"/>
+      <c r="W90" t="n">
+        <v>2790.5332</v>
+      </c>
+      <c r="X90" t="n">
+        <v>15688.2684</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>51.5088</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>370.0032</v>
+      </c>
       <c r="AA90"/>
-      <c r="AB90"/>
+      <c r="AB90" t="n">
+        <v>360.6512</v>
+      </c>
       <c r="AC90"/>
-      <c r="AD90"/>
-      <c r="AE90"/>
-      <c r="AF90"/>
-      <c r="AG90"/>
+      <c r="AD90" t="n">
+        <v>6385.3496</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>11185.0284</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>208.1492</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>23.128</v>
+      </c>
       <c r="AH90"/>
       <c r="AI90"/>
       <c r="AJ90"/>
@@ -9695,13 +9640,11 @@
       <c r="BN90"/>
       <c r="BO90"/>
       <c r="BP90"/>
-      <c r="BQ90" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ90"/>
       <c r="BR90"/>
       <c r="BS90"/>
       <c r="BT90" t="n">
-        <v>0</v>
+        <v>37062.62</v>
       </c>
     </row>
     <row r="91">
@@ -9715,19 +9658,19 @@
         <v>2018</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E91" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F91" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G91" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H91" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I91" t="s">
         <v>79</v>
@@ -9745,19 +9688,41 @@
       <c r="T91"/>
       <c r="U91"/>
       <c r="V91"/>
-      <c r="W91"/>
-      <c r="X91"/>
-      <c r="Y91"/>
-      <c r="Z91"/>
+      <c r="W91" t="n">
+        <v>66.727</v>
+      </c>
+      <c r="X91" t="n">
+        <v>68.264</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>3.4185</v>
+      </c>
       <c r="AA91"/>
-      <c r="AB91"/>
+      <c r="AB91" t="n">
+        <v>1.219</v>
+      </c>
       <c r="AC91"/>
-      <c r="AD91"/>
-      <c r="AE91"/>
-      <c r="AF91"/>
-      <c r="AG91"/>
-      <c r="AH91"/>
-      <c r="AI91"/>
+      <c r="AD91" t="n">
+        <v>62.3015</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>142.252</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>666.5545</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>27.4805</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>82.9715</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>22.79</v>
+      </c>
       <c r="AJ91"/>
       <c r="AK91"/>
       <c r="AL91"/>
@@ -9791,13 +9756,11 @@
       <c r="BN91"/>
       <c r="BO91"/>
       <c r="BP91"/>
-      <c r="BQ91" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ91"/>
       <c r="BR91"/>
       <c r="BS91"/>
       <c r="BT91" t="n">
-        <v>0</v>
+        <v>1144.4555</v>
       </c>
     </row>
     <row r="92">
@@ -9811,19 +9774,19 @@
         <v>2018</v>
       </c>
       <c r="D92" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F92" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G92" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H92" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I92" t="s">
         <v>79</v>
@@ -9841,19 +9804,41 @@
       <c r="T92"/>
       <c r="U92"/>
       <c r="V92"/>
-      <c r="W92"/>
-      <c r="X92"/>
-      <c r="Y92"/>
-      <c r="Z92"/>
+      <c r="W92" t="n">
+        <v>17.119</v>
+      </c>
+      <c r="X92" t="n">
+        <v>68.8735</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0.0795</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0.6095</v>
+      </c>
       <c r="AA92"/>
-      <c r="AB92"/>
+      <c r="AB92" t="n">
+        <v>0.212</v>
+      </c>
       <c r="AC92"/>
-      <c r="AD92"/>
-      <c r="AE92"/>
-      <c r="AF92"/>
-      <c r="AG92"/>
-      <c r="AH92"/>
-      <c r="AI92"/>
+      <c r="AD92" t="n">
+        <v>41.1015</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>24.963</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>924.055</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>35.9605</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>29.097</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>8.003</v>
+      </c>
       <c r="AJ92"/>
       <c r="AK92"/>
       <c r="AL92"/>
@@ -9887,13 +9872,11 @@
       <c r="BN92"/>
       <c r="BO92"/>
       <c r="BP92"/>
-      <c r="BQ92" t="n">
-        <v>36.4868</v>
-      </c>
+      <c r="BQ92"/>
       <c r="BR92"/>
       <c r="BS92"/>
       <c r="BT92" t="n">
-        <v>36.4868</v>
+        <v>1150.0735</v>
       </c>
     </row>
     <row r="93">
@@ -9907,16 +9890,16 @@
         <v>2018</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E93" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F93" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H93" t="s">
         <v>80</v>
@@ -9937,19 +9920,41 @@
       <c r="T93"/>
       <c r="U93"/>
       <c r="V93"/>
-      <c r="W93"/>
-      <c r="X93"/>
-      <c r="Y93"/>
-      <c r="Z93"/>
+      <c r="W93" t="n">
+        <v>60.6648</v>
+      </c>
+      <c r="X93" t="n">
+        <v>506.072</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>6.2664</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>44.3996</v>
+      </c>
       <c r="AA93"/>
-      <c r="AB93"/>
+      <c r="AB93" t="n">
+        <v>20.0704</v>
+      </c>
       <c r="AC93"/>
-      <c r="AD93"/>
-      <c r="AE93"/>
-      <c r="AF93"/>
-      <c r="AG93"/>
-      <c r="AH93"/>
-      <c r="AI93"/>
+      <c r="AD93" t="n">
+        <v>255.4132</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>492.142</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>208.1492</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>23.128</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>76.4876</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>31.3292</v>
+      </c>
       <c r="AJ93"/>
       <c r="AK93"/>
       <c r="AL93"/>
@@ -9983,13 +9988,11 @@
       <c r="BN93"/>
       <c r="BO93"/>
       <c r="BP93"/>
-      <c r="BQ93" t="n">
-        <v>31.535</v>
-      </c>
+      <c r="BQ93"/>
       <c r="BR93"/>
       <c r="BS93"/>
       <c r="BT93" t="n">
-        <v>31.535</v>
+        <v>1724.1224</v>
       </c>
     </row>
     <row r="94">
@@ -10003,43 +10006,35 @@
         <v>2018</v>
       </c>
       <c r="D94" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E94" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F94" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G94" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H94" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I94" t="s">
         <v>79</v>
       </c>
-      <c r="J94" t="n">
-        <v>1.5596</v>
-      </c>
+      <c r="J94"/>
       <c r="K94"/>
-      <c r="L94" t="n">
-        <v>494.5136</v>
-      </c>
+      <c r="L94"/>
       <c r="M94"/>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94"/>
-      <c r="S94" t="n">
-        <v>169.0444</v>
-      </c>
+      <c r="S94"/>
       <c r="T94"/>
-      <c r="U94" t="n">
-        <v>4.3456</v>
-      </c>
+      <c r="U94"/>
       <c r="V94"/>
       <c r="W94"/>
       <c r="X94"/>
@@ -10087,11 +10082,13 @@
       <c r="BN94"/>
       <c r="BO94"/>
       <c r="BP94"/>
-      <c r="BQ94"/>
+      <c r="BQ94" t="n">
+        <v>0</v>
+      </c>
       <c r="BR94"/>
       <c r="BS94"/>
       <c r="BT94" t="n">
-        <v>669.4632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -10105,43 +10102,35 @@
         <v>2018</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E95" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F95" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G95" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H95" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I95" t="s">
         <v>79</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.371</v>
-      </c>
+      <c r="J95"/>
       <c r="K95"/>
-      <c r="L95" t="n">
-        <v>121.3435</v>
-      </c>
+      <c r="L95"/>
       <c r="M95"/>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95"/>
-      <c r="S95" t="n">
-        <v>41.4725</v>
-      </c>
+      <c r="S95"/>
       <c r="T95"/>
-      <c r="U95" t="n">
-        <v>1.06</v>
-      </c>
+      <c r="U95"/>
       <c r="V95"/>
       <c r="W95"/>
       <c r="X95"/>
@@ -10189,11 +10178,13 @@
       <c r="BN95"/>
       <c r="BO95"/>
       <c r="BP95"/>
-      <c r="BQ95"/>
+      <c r="BQ95" t="n">
+        <v>45991.2677</v>
+      </c>
       <c r="BR95"/>
       <c r="BS95"/>
       <c r="BT95" t="n">
-        <v>164.247</v>
+        <v>45991.2677</v>
       </c>
     </row>
     <row r="96">
@@ -10207,19 +10198,19 @@
         <v>2018</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E96" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F96" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G96" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H96" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I96" t="s">
         <v>79</v>
@@ -10283,13 +10274,13 @@
       <c r="BN96"/>
       <c r="BO96"/>
       <c r="BP96"/>
-      <c r="BQ96"/>
-      <c r="BR96" t="n">
-        <v>1078.8708</v>
-      </c>
+      <c r="BQ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR96"/>
       <c r="BS96"/>
       <c r="BT96" t="n">
-        <v>1078.8708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -10303,19 +10294,19 @@
         <v>2018</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E97" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F97" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G97" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H97" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I97" t="s">
         <v>79</v>
@@ -10379,13 +10370,13 @@
       <c r="BN97"/>
       <c r="BO97"/>
       <c r="BP97"/>
-      <c r="BQ97"/>
-      <c r="BR97" t="n">
-        <v>932.2965</v>
-      </c>
+      <c r="BQ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR97"/>
       <c r="BS97"/>
       <c r="BT97" t="n">
-        <v>932.2965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -10399,16 +10390,16 @@
         <v>2018</v>
       </c>
       <c r="D98" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E98" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F98" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G98" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H98" t="s">
         <v>80</v>
@@ -10452,9 +10443,7 @@
       <c r="AQ98"/>
       <c r="AR98"/>
       <c r="AS98"/>
-      <c r="AT98" t="n">
-        <v>2407.9225</v>
-      </c>
+      <c r="AT98"/>
       <c r="AU98"/>
       <c r="AV98"/>
       <c r="AW98"/>
@@ -10477,11 +10466,13 @@
       <c r="BN98"/>
       <c r="BO98"/>
       <c r="BP98"/>
-      <c r="BQ98"/>
+      <c r="BQ98" t="n">
+        <v>0</v>
+      </c>
       <c r="BR98"/>
       <c r="BS98"/>
       <c r="BT98" t="n">
-        <v>2407.9225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -10495,16 +10486,16 @@
         <v>2018</v>
       </c>
       <c r="D99" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E99" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F99" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G99" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H99" t="s">
         <v>80</v>
@@ -10571,13 +10562,13 @@
       <c r="BN99"/>
       <c r="BO99"/>
       <c r="BP99"/>
-      <c r="BQ99"/>
-      <c r="BR99" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ99" t="n">
+        <v>36.4868</v>
+      </c>
+      <c r="BR99"/>
       <c r="BS99"/>
       <c r="BT99" t="n">
-        <v>0</v>
+        <v>36.4868</v>
       </c>
     </row>
     <row r="100">
@@ -10591,19 +10582,19 @@
         <v>2018</v>
       </c>
       <c r="D100" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E100" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F100" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G100" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H100" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I100" t="s">
         <v>79</v>
@@ -10621,41 +10612,19 @@
       <c r="T100"/>
       <c r="U100"/>
       <c r="V100"/>
-      <c r="W100" t="n">
-        <v>1133.1665</v>
-      </c>
-      <c r="X100" t="n">
-        <v>7006.706</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>23.9825</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>169.441</v>
-      </c>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
       <c r="AA100"/>
-      <c r="AB100" t="n">
-        <v>59.943</v>
-      </c>
+      <c r="AB100"/>
       <c r="AC100"/>
-      <c r="AD100" t="n">
-        <v>3203.9295</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>7040.997</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>601.8945</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>165.36</v>
-      </c>
+      <c r="AD100"/>
+      <c r="AE100"/>
+      <c r="AF100"/>
+      <c r="AG100"/>
+      <c r="AH100"/>
+      <c r="AI100"/>
       <c r="AJ100"/>
       <c r="AK100"/>
       <c r="AL100"/>
@@ -10689,11 +10658,13 @@
       <c r="BN100"/>
       <c r="BO100"/>
       <c r="BP100"/>
-      <c r="BQ100"/>
+      <c r="BQ100" t="n">
+        <v>31.535</v>
+      </c>
       <c r="BR100"/>
       <c r="BS100"/>
       <c r="BT100" t="n">
-        <v>19405.42</v>
+        <v>31.535</v>
       </c>
     </row>
     <row r="101">
@@ -10707,26 +10678,30 @@
         <v>2018</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E101" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F101" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G101" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H101" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I101" t="s">
         <v>79</v>
       </c>
-      <c r="J101"/>
+      <c r="J101" t="n">
+        <v>1.5596</v>
+      </c>
       <c r="K101"/>
-      <c r="L101"/>
+      <c r="L101" t="n">
+        <v>494.5136</v>
+      </c>
       <c r="M101"/>
       <c r="N101"/>
       <c r="O101"/>
@@ -10734,10 +10709,12 @@
       <c r="Q101"/>
       <c r="R101"/>
       <c r="S101" t="n">
-        <v>12462.576</v>
+        <v>169.0444</v>
       </c>
       <c r="T101"/>
-      <c r="U101"/>
+      <c r="U101" t="n">
+        <v>4.3456</v>
+      </c>
       <c r="V101"/>
       <c r="W101"/>
       <c r="X101"/>
@@ -10789,7 +10766,7 @@
       <c r="BR101"/>
       <c r="BS101"/>
       <c r="BT101" t="n">
-        <v>12462.576</v>
+        <v>669.4632</v>
       </c>
     </row>
     <row r="102">
@@ -10803,49 +10780,43 @@
         <v>2018</v>
       </c>
       <c r="D102" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E102" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F102" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G102" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H102" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I102" t="s">
         <v>79</v>
       </c>
       <c r="J102" t="n">
-        <v>6.307</v>
+        <v>0.371</v>
       </c>
       <c r="K102"/>
       <c r="L102" t="n">
-        <v>556.659</v>
+        <v>121.3435</v>
       </c>
       <c r="M102"/>
       <c r="N102"/>
-      <c r="O102" t="n">
-        <v>114.4005</v>
-      </c>
-      <c r="P102" t="n">
-        <v>537.791</v>
-      </c>
+      <c r="O102"/>
+      <c r="P102"/>
       <c r="Q102"/>
-      <c r="R102" t="n">
-        <v>71.0465</v>
-      </c>
+      <c r="R102"/>
       <c r="S102" t="n">
-        <v>825.104</v>
-      </c>
-      <c r="T102" t="n">
-        <v>41.658</v>
-      </c>
-      <c r="U102"/>
+        <v>41.4725</v>
+      </c>
+      <c r="T102"/>
+      <c r="U102" t="n">
+        <v>1.06</v>
+      </c>
       <c r="V102"/>
       <c r="W102"/>
       <c r="X102"/>
@@ -10897,7 +10868,7 @@
       <c r="BR102"/>
       <c r="BS102"/>
       <c r="BT102" t="n">
-        <v>2152.966</v>
+        <v>164.247</v>
       </c>
     </row>
     <row r="103">
@@ -10911,19 +10882,19 @@
         <v>2018</v>
       </c>
       <c r="D103" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E103" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F103" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G103" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H103" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I103" t="s">
         <v>79</v>
@@ -10976,9 +10947,7 @@
       <c r="BC103"/>
       <c r="BD103"/>
       <c r="BE103"/>
-      <c r="BF103" t="n">
-        <v>13585.7316032528</v>
-      </c>
+      <c r="BF103"/>
       <c r="BG103"/>
       <c r="BH103"/>
       <c r="BI103"/>
@@ -10990,10 +10959,12 @@
       <c r="BO103"/>
       <c r="BP103"/>
       <c r="BQ103"/>
-      <c r="BR103"/>
+      <c r="BR103" t="n">
+        <v>1078.8708</v>
+      </c>
       <c r="BS103"/>
       <c r="BT103" t="n">
-        <v>13585.7316032528</v>
+        <v>1078.8708</v>
       </c>
     </row>
     <row r="104">
@@ -11007,19 +10978,19 @@
         <v>2018</v>
       </c>
       <c r="D104" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E104" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F104" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G104" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H104" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I104" t="s">
         <v>79</v>
@@ -11074,9 +11045,7 @@
       <c r="BE104"/>
       <c r="BF104"/>
       <c r="BG104"/>
-      <c r="BH104" t="n">
-        <v>151.4856</v>
-      </c>
+      <c r="BH104"/>
       <c r="BI104"/>
       <c r="BJ104"/>
       <c r="BK104"/>
@@ -11086,10 +11055,12 @@
       <c r="BO104"/>
       <c r="BP104"/>
       <c r="BQ104"/>
-      <c r="BR104"/>
+      <c r="BR104" t="n">
+        <v>932.2965</v>
+      </c>
       <c r="BS104"/>
       <c r="BT104" t="n">
-        <v>151.4856</v>
+        <v>932.2965</v>
       </c>
     </row>
     <row r="105">
@@ -11103,19 +11074,19 @@
         <v>2018</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E105" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F105" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G105" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H105" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I105" t="s">
         <v>79</v>
@@ -11156,7 +11127,9 @@
       <c r="AQ105"/>
       <c r="AR105"/>
       <c r="AS105"/>
-      <c r="AT105"/>
+      <c r="AT105" t="n">
+        <v>2407.9225</v>
+      </c>
       <c r="AU105"/>
       <c r="AV105"/>
       <c r="AW105"/>
@@ -11167,9 +11140,7 @@
       <c r="BB105"/>
       <c r="BC105"/>
       <c r="BD105"/>
-      <c r="BE105" t="n">
-        <v>12013.0905753432</v>
-      </c>
+      <c r="BE105"/>
       <c r="BF105"/>
       <c r="BG105"/>
       <c r="BH105"/>
@@ -11185,7 +11156,7 @@
       <c r="BR105"/>
       <c r="BS105"/>
       <c r="BT105" t="n">
-        <v>12013.0905753432</v>
+        <v>2407.9225</v>
       </c>
     </row>
     <row r="106">
@@ -11199,19 +11170,19 @@
         <v>2018</v>
       </c>
       <c r="D106" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F106" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G106" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I106" t="s">
         <v>79</v>
@@ -11263,9 +11234,7 @@
       <c r="BB106"/>
       <c r="BC106"/>
       <c r="BD106"/>
-      <c r="BE106" t="n">
-        <v>1955.86029935237</v>
-      </c>
+      <c r="BE106"/>
       <c r="BF106"/>
       <c r="BG106"/>
       <c r="BH106"/>
@@ -11278,10 +11247,12 @@
       <c r="BO106"/>
       <c r="BP106"/>
       <c r="BQ106"/>
-      <c r="BR106"/>
+      <c r="BR106" t="n">
+        <v>0</v>
+      </c>
       <c r="BS106"/>
       <c r="BT106" t="n">
-        <v>1955.86029935237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -11295,19 +11266,19 @@
         <v>2018</v>
       </c>
       <c r="D107" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E107" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F107" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="G107" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H107" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I107" t="s">
         <v>79</v>
@@ -11325,19 +11296,41 @@
       <c r="T107"/>
       <c r="U107"/>
       <c r="V107"/>
-      <c r="W107"/>
-      <c r="X107"/>
-      <c r="Y107"/>
-      <c r="Z107"/>
+      <c r="W107" t="n">
+        <v>1133.1665</v>
+      </c>
+      <c r="X107" t="n">
+        <v>7006.706</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>23.9825</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>169.441</v>
+      </c>
       <c r="AA107"/>
-      <c r="AB107"/>
+      <c r="AB107" t="n">
+        <v>59.943</v>
+      </c>
       <c r="AC107"/>
-      <c r="AD107"/>
-      <c r="AE107"/>
-      <c r="AF107"/>
-      <c r="AG107"/>
-      <c r="AH107"/>
-      <c r="AI107"/>
+      <c r="AD107" t="n">
+        <v>3203.9295</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>7040.997</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>601.8945</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>165.36</v>
+      </c>
       <c r="AJ107"/>
       <c r="AK107"/>
       <c r="AL107"/>
@@ -11369,14 +11362,696 @@
       <c r="BL107"/>
       <c r="BM107"/>
       <c r="BN107"/>
-      <c r="BO107" t="n">
-        <v>3556.36366010438</v>
-      </c>
+      <c r="BO107"/>
       <c r="BP107"/>
       <c r="BQ107"/>
       <c r="BR107"/>
       <c r="BS107"/>
       <c r="BT107" t="n">
+        <v>19405.42</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D108" t="s">
+        <v>162</v>
+      </c>
+      <c r="E108" t="s">
+        <v>163</v>
+      </c>
+      <c r="F108" t="s">
+        <v>151</v>
+      </c>
+      <c r="G108" t="s">
+        <v>105</v>
+      </c>
+      <c r="H108" t="s">
+        <v>80</v>
+      </c>
+      <c r="I108" t="s">
+        <v>79</v>
+      </c>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108" t="n">
+        <v>12462.576</v>
+      </c>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+      <c r="AB108"/>
+      <c r="AC108"/>
+      <c r="AD108"/>
+      <c r="AE108"/>
+      <c r="AF108"/>
+      <c r="AG108"/>
+      <c r="AH108"/>
+      <c r="AI108"/>
+      <c r="AJ108"/>
+      <c r="AK108"/>
+      <c r="AL108"/>
+      <c r="AM108"/>
+      <c r="AN108"/>
+      <c r="AO108"/>
+      <c r="AP108"/>
+      <c r="AQ108"/>
+      <c r="AR108"/>
+      <c r="AS108"/>
+      <c r="AT108"/>
+      <c r="AU108"/>
+      <c r="AV108"/>
+      <c r="AW108"/>
+      <c r="AX108"/>
+      <c r="AY108"/>
+      <c r="AZ108"/>
+      <c r="BA108"/>
+      <c r="BB108"/>
+      <c r="BC108"/>
+      <c r="BD108"/>
+      <c r="BE108"/>
+      <c r="BF108"/>
+      <c r="BG108"/>
+      <c r="BH108"/>
+      <c r="BI108"/>
+      <c r="BJ108"/>
+      <c r="BK108"/>
+      <c r="BL108"/>
+      <c r="BM108"/>
+      <c r="BN108"/>
+      <c r="BO108"/>
+      <c r="BP108"/>
+      <c r="BQ108"/>
+      <c r="BR108"/>
+      <c r="BS108"/>
+      <c r="BT108" t="n">
+        <v>12462.576</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D109" t="s">
+        <v>164</v>
+      </c>
+      <c r="E109" t="s">
+        <v>165</v>
+      </c>
+      <c r="F109" t="s">
+        <v>151</v>
+      </c>
+      <c r="G109" t="s">
+        <v>105</v>
+      </c>
+      <c r="H109" t="s">
+        <v>81</v>
+      </c>
+      <c r="I109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J109" t="n">
+        <v>6.307</v>
+      </c>
+      <c r="K109"/>
+      <c r="L109" t="n">
+        <v>556.659</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109" t="n">
+        <v>114.4005</v>
+      </c>
+      <c r="P109" t="n">
+        <v>537.791</v>
+      </c>
+      <c r="Q109"/>
+      <c r="R109" t="n">
+        <v>71.0465</v>
+      </c>
+      <c r="S109" t="n">
+        <v>825.104</v>
+      </c>
+      <c r="T109" t="n">
+        <v>41.658</v>
+      </c>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+      <c r="AA109"/>
+      <c r="AB109"/>
+      <c r="AC109"/>
+      <c r="AD109"/>
+      <c r="AE109"/>
+      <c r="AF109"/>
+      <c r="AG109"/>
+      <c r="AH109"/>
+      <c r="AI109"/>
+      <c r="AJ109"/>
+      <c r="AK109"/>
+      <c r="AL109"/>
+      <c r="AM109"/>
+      <c r="AN109"/>
+      <c r="AO109"/>
+      <c r="AP109"/>
+      <c r="AQ109"/>
+      <c r="AR109"/>
+      <c r="AS109"/>
+      <c r="AT109"/>
+      <c r="AU109"/>
+      <c r="AV109"/>
+      <c r="AW109"/>
+      <c r="AX109"/>
+      <c r="AY109"/>
+      <c r="AZ109"/>
+      <c r="BA109"/>
+      <c r="BB109"/>
+      <c r="BC109"/>
+      <c r="BD109"/>
+      <c r="BE109"/>
+      <c r="BF109"/>
+      <c r="BG109"/>
+      <c r="BH109"/>
+      <c r="BI109"/>
+      <c r="BJ109"/>
+      <c r="BK109"/>
+      <c r="BL109"/>
+      <c r="BM109"/>
+      <c r="BN109"/>
+      <c r="BO109"/>
+      <c r="BP109"/>
+      <c r="BQ109"/>
+      <c r="BR109"/>
+      <c r="BS109"/>
+      <c r="BT109" t="n">
+        <v>2152.966</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E110" t="s">
+        <v>167</v>
+      </c>
+      <c r="F110" t="s">
+        <v>168</v>
+      </c>
+      <c r="G110" t="s">
+        <v>105</v>
+      </c>
+      <c r="H110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I110" t="s">
+        <v>79</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AD110"/>
+      <c r="AE110"/>
+      <c r="AF110"/>
+      <c r="AG110"/>
+      <c r="AH110"/>
+      <c r="AI110"/>
+      <c r="AJ110"/>
+      <c r="AK110"/>
+      <c r="AL110"/>
+      <c r="AM110"/>
+      <c r="AN110"/>
+      <c r="AO110"/>
+      <c r="AP110"/>
+      <c r="AQ110"/>
+      <c r="AR110"/>
+      <c r="AS110"/>
+      <c r="AT110"/>
+      <c r="AU110"/>
+      <c r="AV110"/>
+      <c r="AW110"/>
+      <c r="AX110"/>
+      <c r="AY110"/>
+      <c r="AZ110"/>
+      <c r="BA110"/>
+      <c r="BB110"/>
+      <c r="BC110"/>
+      <c r="BD110"/>
+      <c r="BE110"/>
+      <c r="BF110" t="n">
+        <v>13585.7316032528</v>
+      </c>
+      <c r="BG110"/>
+      <c r="BH110"/>
+      <c r="BI110"/>
+      <c r="BJ110"/>
+      <c r="BK110"/>
+      <c r="BL110"/>
+      <c r="BM110"/>
+      <c r="BN110"/>
+      <c r="BO110"/>
+      <c r="BP110"/>
+      <c r="BQ110"/>
+      <c r="BR110"/>
+      <c r="BS110"/>
+      <c r="BT110" t="n">
+        <v>13585.7316032528</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D111" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" t="s">
+        <v>170</v>
+      </c>
+      <c r="F111" t="s">
+        <v>168</v>
+      </c>
+      <c r="G111" t="s">
+        <v>105</v>
+      </c>
+      <c r="H111" t="s">
+        <v>80</v>
+      </c>
+      <c r="I111" t="s">
+        <v>79</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+      <c r="Y111"/>
+      <c r="Z111"/>
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+      <c r="AH111"/>
+      <c r="AI111"/>
+      <c r="AJ111"/>
+      <c r="AK111"/>
+      <c r="AL111"/>
+      <c r="AM111"/>
+      <c r="AN111"/>
+      <c r="AO111"/>
+      <c r="AP111"/>
+      <c r="AQ111"/>
+      <c r="AR111"/>
+      <c r="AS111"/>
+      <c r="AT111"/>
+      <c r="AU111"/>
+      <c r="AV111"/>
+      <c r="AW111"/>
+      <c r="AX111"/>
+      <c r="AY111"/>
+      <c r="AZ111"/>
+      <c r="BA111"/>
+      <c r="BB111"/>
+      <c r="BC111"/>
+      <c r="BD111"/>
+      <c r="BE111"/>
+      <c r="BF111"/>
+      <c r="BG111"/>
+      <c r="BH111" t="n">
+        <v>151.4856</v>
+      </c>
+      <c r="BI111"/>
+      <c r="BJ111"/>
+      <c r="BK111"/>
+      <c r="BL111"/>
+      <c r="BM111"/>
+      <c r="BN111"/>
+      <c r="BO111"/>
+      <c r="BP111"/>
+      <c r="BQ111"/>
+      <c r="BR111"/>
+      <c r="BS111"/>
+      <c r="BT111" t="n">
+        <v>151.4856</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" t="s">
+        <v>73</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D112" t="s">
+        <v>171</v>
+      </c>
+      <c r="E112" t="s">
+        <v>172</v>
+      </c>
+      <c r="F112" t="s">
+        <v>168</v>
+      </c>
+      <c r="G112" t="s">
+        <v>105</v>
+      </c>
+      <c r="H112" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112" t="s">
+        <v>79</v>
+      </c>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+      <c r="AH112"/>
+      <c r="AI112"/>
+      <c r="AJ112"/>
+      <c r="AK112"/>
+      <c r="AL112"/>
+      <c r="AM112"/>
+      <c r="AN112"/>
+      <c r="AO112"/>
+      <c r="AP112"/>
+      <c r="AQ112"/>
+      <c r="AR112"/>
+      <c r="AS112"/>
+      <c r="AT112"/>
+      <c r="AU112"/>
+      <c r="AV112"/>
+      <c r="AW112"/>
+      <c r="AX112"/>
+      <c r="AY112"/>
+      <c r="AZ112"/>
+      <c r="BA112"/>
+      <c r="BB112"/>
+      <c r="BC112"/>
+      <c r="BD112"/>
+      <c r="BE112" t="n">
+        <v>12013.0905753432</v>
+      </c>
+      <c r="BF112"/>
+      <c r="BG112"/>
+      <c r="BH112"/>
+      <c r="BI112"/>
+      <c r="BJ112"/>
+      <c r="BK112"/>
+      <c r="BL112"/>
+      <c r="BM112"/>
+      <c r="BN112"/>
+      <c r="BO112"/>
+      <c r="BP112"/>
+      <c r="BQ112"/>
+      <c r="BR112"/>
+      <c r="BS112"/>
+      <c r="BT112" t="n">
+        <v>12013.0905753432</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D113" t="s">
+        <v>171</v>
+      </c>
+      <c r="E113" t="s">
+        <v>172</v>
+      </c>
+      <c r="F113" t="s">
+        <v>168</v>
+      </c>
+      <c r="G113" t="s">
+        <v>105</v>
+      </c>
+      <c r="H113" t="s">
+        <v>81</v>
+      </c>
+      <c r="I113" t="s">
+        <v>79</v>
+      </c>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113"/>
+      <c r="AE113"/>
+      <c r="AF113"/>
+      <c r="AG113"/>
+      <c r="AH113"/>
+      <c r="AI113"/>
+      <c r="AJ113"/>
+      <c r="AK113"/>
+      <c r="AL113"/>
+      <c r="AM113"/>
+      <c r="AN113"/>
+      <c r="AO113"/>
+      <c r="AP113"/>
+      <c r="AQ113"/>
+      <c r="AR113"/>
+      <c r="AS113"/>
+      <c r="AT113"/>
+      <c r="AU113"/>
+      <c r="AV113"/>
+      <c r="AW113"/>
+      <c r="AX113"/>
+      <c r="AY113"/>
+      <c r="AZ113"/>
+      <c r="BA113"/>
+      <c r="BB113"/>
+      <c r="BC113"/>
+      <c r="BD113"/>
+      <c r="BE113" t="n">
+        <v>1955.86029935237</v>
+      </c>
+      <c r="BF113"/>
+      <c r="BG113"/>
+      <c r="BH113"/>
+      <c r="BI113"/>
+      <c r="BJ113"/>
+      <c r="BK113"/>
+      <c r="BL113"/>
+      <c r="BM113"/>
+      <c r="BN113"/>
+      <c r="BO113"/>
+      <c r="BP113"/>
+      <c r="BQ113"/>
+      <c r="BR113"/>
+      <c r="BS113"/>
+      <c r="BT113" t="n">
+        <v>1955.86029935237</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>72</v>
+      </c>
+      <c r="B114" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D114" t="s">
+        <v>173</v>
+      </c>
+      <c r="E114" t="s">
+        <v>174</v>
+      </c>
+      <c r="F114" t="s">
+        <v>175</v>
+      </c>
+      <c r="G114" t="s">
+        <v>105</v>
+      </c>
+      <c r="H114" t="s">
+        <v>81</v>
+      </c>
+      <c r="I114" t="s">
+        <v>79</v>
+      </c>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114"/>
+      <c r="AE114"/>
+      <c r="AF114"/>
+      <c r="AG114"/>
+      <c r="AH114"/>
+      <c r="AI114"/>
+      <c r="AJ114"/>
+      <c r="AK114"/>
+      <c r="AL114"/>
+      <c r="AM114"/>
+      <c r="AN114"/>
+      <c r="AO114"/>
+      <c r="AP114"/>
+      <c r="AQ114"/>
+      <c r="AR114"/>
+      <c r="AS114"/>
+      <c r="AT114"/>
+      <c r="AU114"/>
+      <c r="AV114"/>
+      <c r="AW114"/>
+      <c r="AX114"/>
+      <c r="AY114"/>
+      <c r="AZ114"/>
+      <c r="BA114"/>
+      <c r="BB114"/>
+      <c r="BC114"/>
+      <c r="BD114"/>
+      <c r="BE114"/>
+      <c r="BF114"/>
+      <c r="BG114"/>
+      <c r="BH114"/>
+      <c r="BI114"/>
+      <c r="BJ114"/>
+      <c r="BK114"/>
+      <c r="BL114"/>
+      <c r="BM114"/>
+      <c r="BN114"/>
+      <c r="BO114" t="n">
+        <v>3556.36366010438</v>
+      </c>
+      <c r="BP114"/>
+      <c r="BQ114"/>
+      <c r="BR114"/>
+      <c r="BS114"/>
+      <c r="BT114" t="n">
         <v>3556.36366010438</v>
       </c>
     </row>
